--- a/data/shows.xlsx
+++ b/data/shows.xlsx
@@ -2,25 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11879621be2b099b/BEN'S SOFTWARE/Documents/Python Projects/Ben's Python Computer Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11879621be2b099b/BEN'S SOFTWARE/Documents/Python Projects/Ben's Python Computer Software/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{E4D541D0-A68D-427D-A398-F1139275D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72180029-1042-4228-BC33-EAF61E9EB482}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{3F91647B-07EC-4289-AE31-01F9A83BBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051DA166-C4EC-4E8F-9311-86CE5B32C159}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
   </bookViews>
   <sheets>
     <sheet name="shows" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="609">
   <si>
     <t>type</t>
   </si>
@@ -61,6 +77,15 @@
     <t>https://youtu.be/ctyzvJLoid0</t>
   </si>
   <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/31c6d6a6-8c31-4a91-a2f7-13ffd23a1083</t>
+  </si>
+  <si>
     <t>After Dark</t>
   </si>
   <si>
@@ -100,6 +125,33 @@
     <t>https://youtu.be/dtxfJD60FCQ</t>
   </si>
   <si>
+    <t>disney</t>
+  </si>
+  <si>
+    <t>Playtime Channel</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f0755e9b-6291-40bf-87c8-16cbe160cbbc</t>
+  </si>
+  <si>
+    <t>Real Life</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/a47235bd-fc2d-408a-84bf-e2f6c650f7e4</t>
+  </si>
+  <si>
+    <t>Throwbacks</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/b7554f62-d154-4a78-8ce9-91f7f2d59e94</t>
+  </si>
+  <si>
+    <t>Heros</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/741b5fda-91e0-4e6e-811d-fa9c9d0b326b</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
@@ -244,9 +296,6 @@
     <t>Iron Man 3</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/741b5fda-91e0-4e6e-811d-fa9c9d0b326b</t>
-  </si>
-  <si>
     <t>Rocky</t>
   </si>
   <si>
@@ -373,6 +422,9 @@
     <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F11737</t>
   </si>
   <si>
+    <t>Fast and Furious</t>
+  </si>
+  <si>
     <t>The Fast and the Furious</t>
   </si>
   <si>
@@ -694,594 +746,621 @@
     <t>https://www.hulu.com/watch/34ebf58e-5a2a-4efa-8e4d-fb16039a3051</t>
   </si>
   <si>
+    <t>Dragon Ball Super</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F10749</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/watch/1bc9d2c0-f71f-4f77-a28a-efc2abeced82</t>
+  </si>
+  <si>
+    <t>DigiMon</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/watch/aa9603ec-3688-4e02-b461-1fa4f407fbe9</t>
+  </si>
+  <si>
+    <t>Family Guy</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/watch/e3e44e69-6b56-44e9-b083-cbcb7c9730a5</t>
+  </si>
+  <si>
+    <t>Futurama</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/watch/c3728d56-fbfc-4509-a16d-19857f8b1daa</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/cf46936d-0a68-4a0b-aa2d-4a3a131be881</t>
+  </si>
+  <si>
+    <t>The Simpsons</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/ffb14e5a-38db-4522-a559-3cfa52bcf4df</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/zD9DQ3XZRnHNeh_mieUpRmAlA0T2oTjz/</t>
+  </si>
+  <si>
+    <t>Aqua Teen</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/9c2a7469-5089-4229-9278-d1768494166b</t>
+  </si>
+  <si>
+    <t>American Dad</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/watch/8b927330-f55e-461d-b067-6e401f20c526</t>
+  </si>
+  <si>
+    <t>iCarly</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70278748</t>
+  </si>
+  <si>
+    <t>Sam and Cat</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80027804?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Victorious</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80026347</t>
+  </si>
+  <si>
+    <t>Drake &amp; Josh</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70136546?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Rugrats</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/uOkB1qnYXZXeAM34djVYNHje2_gK4mmO/</t>
+  </si>
+  <si>
+    <t>Sponge Bob</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/ZvEow_nZm5WAiLeMlEmISm3Deti40Ciu/</t>
+  </si>
+  <si>
+    <t>The Thundermans</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/12t8vYXTqn761xkHQ_Sgt5LF2c9qQj9_/</t>
+  </si>
+  <si>
+    <t>Your Friendly Neighborhood Spiderman</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/browse/entity-b1417e49-48ad-4827-bfd6-94580ecbecd7</t>
+  </si>
+  <si>
+    <t>point of view</t>
+  </si>
+  <si>
+    <t>Mario World Rollercoaster Ride</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ASUIibcKIaw</t>
+  </si>
+  <si>
+    <t>Fantastic Views of the Earth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3YTohytF9oE</t>
+  </si>
+  <si>
+    <t>Mario Cart 5 Track Rollercoaster Ride</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Ls6JxF0Fu4</t>
+  </si>
+  <si>
+    <t>Monsters Inc Rollercoaster Ride</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wJNXX34nW3A</t>
+  </si>
+  <si>
+    <t>Star Wars Rollercoaster Ride</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QlPPd0N5VHw</t>
+  </si>
+  <si>
+    <t>Virtual Forest Walk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oSmUI3m2kLk</t>
+  </si>
+  <si>
+    <t>Talladega Nights</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F89375</t>
+  </si>
+  <si>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>Pineapple Express</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19848</t>
+  </si>
+  <si>
+    <t>Tropic Thunder</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F23917</t>
+  </si>
+  <si>
+    <t>The Waterboy</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F11009</t>
+  </si>
+  <si>
+    <t>Big Daddy</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457</t>
+  </si>
+  <si>
+    <t>The Wedding Singer</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F196</t>
+  </si>
+  <si>
+    <t>Little Nicky</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18453</t>
+  </si>
+  <si>
+    <t>This Is the End</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19833</t>
+  </si>
+  <si>
+    <t>Sausage Party</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/browse/entity-b43bac40-9e9f-42d8-8754-aef7c9729430</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19849</t>
+  </si>
+  <si>
+    <t>Step Brothers</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas </t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/45e4a68f-d9df-45f7-8e81-01b4ca5524e9</t>
+  </si>
+  <si>
+    <t>Home Alone 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/86cd0f62-cec4-4426-9e35-9f8263a550a6</t>
+  </si>
+  <si>
+    <t>The Santa Clause</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/1216f88d-738f-4ead-b582-87dabb566373</t>
+  </si>
+  <si>
+    <t>The Santa Clause 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/13c48bb9-fa21-4c31-bba9-cb452536624f</t>
+  </si>
+  <si>
+    <t>The Santa Clause 3</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/7f3ad8b7-769d-4a74-aa9b-a1c87bb38a1f</t>
+  </si>
+  <si>
+    <t>Dodge Ball</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/c264e6da-138c-4ebb-970c-785ad110d03c</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lion King </t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/a3ae7371-39a5-4c0b-a1f2-29a70b372848</t>
+  </si>
+  <si>
+    <t>The Lion King 1.5</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/1f2f6001-2b4a-43e2-b331-f73ec5cc115e</t>
+  </si>
+  <si>
+    <t>The Lion King 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/5cf933b8-ae87-486b-983c-e25eca65bdb0</t>
+  </si>
+  <si>
+    <t>The Little Mermaid</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f7643452-fe64-4b05-8f09-c8bea9b2dd60</t>
+  </si>
+  <si>
+    <t>The Little Mermaid 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/38e87f4a-4b23-438f-857a-60459ab3374b</t>
+  </si>
+  <si>
+    <t>The Little Mermaid: Ariel's Beginning</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/88d77ded-caef-4b86-9209-0967f4cb465d</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/bfad6284-a0aa-4ae1-8469-dc1653121dbb</t>
+  </si>
+  <si>
+    <t>Aladdin 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/16c910f4-2bc0-43e7-98dc-0e4b10550478</t>
+  </si>
+  <si>
+    <t>Pokemon Journeys</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81198528?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Pokemon Master</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81670582?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Bill Burr 2017</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80133549?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Bill Burr 2022</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81457341?trackId=255824129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Burr 2014 </t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80004478?trackId=255875003</t>
+  </si>
+  <si>
+    <t>Bill Burr 2019</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81060174</t>
+  </si>
+  <si>
+    <t>Beauty And The Beast</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/97babebc-7013-455a-b377-aa3d7a6e79c1</t>
+  </si>
+  <si>
+    <t>Pixar</t>
+  </si>
+  <si>
+    <t>Finding Nemo</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/37b62808-2368-4688-9410-2dcf7461e258</t>
+  </si>
+  <si>
+    <t>Finding Dory</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/1898d521-c10f-46ca-b253-432a9eb5416f</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f6174ebf-cb92-453c-a52b-62bb3576e402</t>
+  </si>
+  <si>
+    <t>Toy Story 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/55bb8618-baac-449e-9f63-f402f41371a2</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/95e7b2ce-5f45-4923-976d-b7e9968a7357</t>
+  </si>
+  <si>
+    <t>Toy Story 4</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/97d822a3-7dad-4d85-8350-ce4f8642511e</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/9f16a71b-8f93-455e-8d40-ae72d3dde6f7</t>
+  </si>
+  <si>
+    <t>Lilo And Stitch</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/e291d4ea-cd86-4eb2-9f39-20d2b75165ee</t>
+  </si>
+  <si>
+    <t>Lilo And Stitch 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/75793e68-892b-4c84-b095-43d6de2835ef</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/9c1b0ec2-2e4e-4717-89fb-bdf3a45523df</t>
+  </si>
+  <si>
+    <t>Cars 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/fe92916d-0f0e-47ad-ad34-5931e59b42ea</t>
+  </si>
+  <si>
+    <t>Cars 3</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/610e18a4-d8d8-43b5-8051-672655e715f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 Dalmatians </t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/8eed72cc-3c4a-41cf-8e98-44a6b7f8f8d3</t>
+  </si>
+  <si>
+    <t>101 Dalmatians 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/6d030186-6960-4cdf-8fe1-a4f04685fc7f</t>
+  </si>
+  <si>
+    <t>Alice In Wonderland</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/7ccabaf6-d01a-4163-a613-862f2c4f1446</t>
+  </si>
+  <si>
+    <t>Snow White</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f51f7e6c-2d9a-443c-9831-f3cc22e822b4</t>
+  </si>
+  <si>
+    <t>Bambi</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/c5350c37-0c8f-4094-8e63-72bfef0a0b08</t>
+  </si>
+  <si>
+    <t>Bambi 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/10615472-1eb1-4566-ad47-162f8a501c27</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/92d66793-7198-45de-bfb6-84915256d855</t>
+  </si>
+  <si>
+    <t>Lady And The Tramp</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f8a68a49-f7c3-417d-baed-1ff7c7b862de</t>
+  </si>
+  <si>
+    <t>Captain America 2011</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/8e68c43a-117c-4f4d-b217-0db106a1a614</t>
+  </si>
+  <si>
+    <t>Captain America 2014</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/ef333a5c-b855-4d3e-a7d9-d9e142b6dc7d</t>
+  </si>
+  <si>
+    <t>Captain America Civil War</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/2fe7e94e-8b24-4a75-8fc8-969c2a16959e</t>
+  </si>
+  <si>
+    <t>Fantastic 4</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/d6592baa-0dc6-4549-a0cb-3b93a3b0e260</t>
+  </si>
+  <si>
+    <t>Fantastic 4: Silver Surfer</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/06810fd3-a12e-4185-829b-36b3c814ce97</t>
+  </si>
+  <si>
+    <t>Zoey 101</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70297892?trackId=255824129</t>
+  </si>
+  <si>
+    <t>cartoon network</t>
+  </si>
+  <si>
+    <t>Power Puff Girls</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70268720?trackId=14170068</t>
+  </si>
+  <si>
+    <t>F Is For Family</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80028553?trackId=14187053</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81262430?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Big Mouth</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80117039?trackId=255824129</t>
+  </si>
+  <si>
+    <t>Clifford The Big Red Dog</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81286595?trackId=255824129</t>
+  </si>
+  <si>
+    <t>The Simpsons Movie</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/21cdf36d-d3ba-49f6-9dc6-b9d4e2a8be85</t>
+  </si>
+  <si>
+    <t>Spiderman Cartoon 1994</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/c7ef3fbd-0f65-4ef5-bff4-d1ab396b79a9</t>
+  </si>
+  <si>
+    <t>Spiderman Unlimited</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/browse/entity-c9317b3b-c319-4c71-af41-d152a21e0188</t>
+  </si>
+  <si>
+    <t>Spiderman Cartoon 2017</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/7ead9564-9d09-4139-913a-84c32e4d467e</t>
+  </si>
+  <si>
+    <t>Spiderman Cartoon 1981</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/browse/entity-40b68b03-3047-4233-bec1-a304efdb9bfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiderman Ultimate </t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/9300b1bc-e876-4228-8d98-85e7bdf82f0c</t>
+  </si>
+  <si>
+    <t>Curious George</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/36c3a72f-c33b-4bbd-abcc-d68aa6d9d747</t>
+  </si>
+  <si>
+    <t>A Christmas Story</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F66378</t>
+  </si>
+  <si>
+    <t>Dear Santa</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F64785</t>
+  </si>
+  <si>
+    <t>An American Pickle</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62110</t>
+  </si>
+  <si>
+    <t>Major Payne</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61601</t>
+  </si>
+  <si>
+    <t>Shaun of the Dead</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52261</t>
+  </si>
+  <si>
     <t>Dragon Ball Z</t>
   </si>
   <si>
-    <t>Dragon Ball Super</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/1bc9d2c0-f71f-4f77-a28a-efc2abeced82</t>
-  </si>
-  <si>
-    <t>DigiMon</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/aa9603ec-3688-4e02-b461-1fa4f407fbe9</t>
-  </si>
-  <si>
-    <t>Family Guy</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/e3e44e69-6b56-44e9-b083-cbcb7c9730a5</t>
-  </si>
-  <si>
-    <t>Futurama</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/c3728d56-fbfc-4509-a16d-19857f8b1daa</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>https://play.max.com/video/watch/cf46936d-0a68-4a0b-aa2d-4a3a131be881</t>
-  </si>
-  <si>
-    <t>The Simpsons</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/ffb14e5a-38db-4522-a559-3cfa52bcf4df</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>https://www.paramountplus.com/shows/video/zD9DQ3XZRnHNeh_mieUpRmAlA0T2oTjz/</t>
-  </si>
-  <si>
-    <t>Aqua Teen</t>
-  </si>
-  <si>
-    <t>https://play.max.com/video/watch/9c2a7469-5089-4229-9278-d1768494166b</t>
-  </si>
-  <si>
-    <t>American Dad</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/8b927330-f55e-461d-b067-6e401f20c526</t>
-  </si>
-  <si>
-    <t>iCarly</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70278748</t>
-  </si>
-  <si>
-    <t>Sam and Cat</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80027804?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Victorious</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80026347</t>
-  </si>
-  <si>
-    <t>Drake &amp; Josh</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70136546?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Rugrats</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70136846</t>
-  </si>
-  <si>
-    <t>Sponge Bob</t>
-  </si>
-  <si>
-    <t>https://www.paramountplus.com/shows/video/ZvEow_nZm5WAiLeMlEmISm3Deti40Ciu/</t>
-  </si>
-  <si>
-    <t>The Thundermans</t>
-  </si>
-  <si>
-    <t>https://www.paramountplus.com/shows/video/12t8vYXTqn761xkHQ_Sgt5LF2c9qQj9_/</t>
-  </si>
-  <si>
-    <t>Your Friendly Neighborhood Spiderman</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-b1417e49-48ad-4827-bfd6-94580ecbecd7</t>
-  </si>
-  <si>
-    <t>point of view</t>
-  </si>
-  <si>
-    <t>Virtual Forest Walk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oSmUI3m2kLk</t>
-  </si>
-  <si>
-    <t>Talladega Nights</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F89375</t>
-  </si>
-  <si>
-    <t>Seth Rogen</t>
-  </si>
-  <si>
-    <t>Pineapple Express</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19848</t>
-  </si>
-  <si>
-    <t>Tropic Thunder</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F23917</t>
-  </si>
-  <si>
-    <t>The Waterboy</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F11009</t>
-  </si>
-  <si>
-    <t>Big Daddy</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457</t>
-  </si>
-  <si>
-    <t>The Wedding Singer</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F196</t>
-  </si>
-  <si>
-    <t>Little Nicky</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18453</t>
-  </si>
-  <si>
-    <t>This Is the End</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19833</t>
-  </si>
-  <si>
-    <t>Sausage Party</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-b43bac40-9e9f-42d8-8754-aef7c9729430</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19849</t>
-  </si>
-  <si>
-    <t>Step Brothers</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christmas </t>
-  </si>
-  <si>
-    <t>Home Alone</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-45e4a68f-d9df-45f7-8e81-01b4ca5524e9</t>
-  </si>
-  <si>
-    <t>Home Alone 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-86cd0f62-cec4-4426-9e35-9f8263a550a6</t>
-  </si>
-  <si>
-    <t>The Santa Clause</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-1216f88d-738f-4ead-b582-87dabb566373</t>
-  </si>
-  <si>
-    <t>The Santa Clause 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-13c48bb9-fa21-4c31-bba9-cb452536624f</t>
-  </si>
-  <si>
-    <t>The Santa Clause 3</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-7f3ad8b7-769d-4a74-aa9b-a1c87bb38a1f</t>
-  </si>
-  <si>
-    <t>Dodge Ball</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-c264e6da-138c-4ebb-970c-785ad110d03c</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lion King </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-a3ae7371-39a5-4c0b-a1f2-29a70b372848</t>
-  </si>
-  <si>
-    <t>The Lion King 1.5</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-1f2f6001-2b4a-43e2-b331-f73ec5cc115e</t>
-  </si>
-  <si>
-    <t>The Lion King 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-5cf933b8-ae87-486b-983c-e25eca65bdb0</t>
-  </si>
-  <si>
-    <t>The Little Mermaid</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-f7643452-fe64-4b05-8f09-c8bea9b2dd60</t>
-  </si>
-  <si>
-    <t>The Little Mermaid 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-38e87f4a-4b23-438f-857a-60459ab3374b</t>
-  </si>
-  <si>
-    <t>The Little Mermaid: Ariel's Beginning</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-88d77ded-caef-4b86-9209-0967f4cb465d</t>
-  </si>
-  <si>
-    <t>Aladdin</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-bfad6284-a0aa-4ae1-8469-dc1653121dbb</t>
-  </si>
-  <si>
-    <t>Aladdin 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-16c910f4-2bc0-43e7-98dc-0e4b10550478</t>
-  </si>
-  <si>
-    <t>Pokemon Indigo</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70295982?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Pokemon Journeys</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81198528?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Pokemon Master</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81670582?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Bill Burr 2017</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80133549?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Bill Burr 2022</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81457341?trackId=255824129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Burr 2014 </t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80004478?trackId=255875003</t>
-  </si>
-  <si>
-    <t>Bill Burr 2019</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81060174</t>
-  </si>
-  <si>
-    <t>Beauty And The Beast</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-97babebc-7013-455a-b377-aa3d7a6e79c1</t>
-  </si>
-  <si>
-    <t>Pixar</t>
-  </si>
-  <si>
-    <t>Finding Nemo</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-37b62808-2368-4688-9410-2dcf7461e258</t>
-  </si>
-  <si>
-    <t>Finding Dory</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-1898d521-c10f-46ca-b253-432a9eb5416f</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-f6174ebf-cb92-453c-a52b-62bb3576e402</t>
-  </si>
-  <si>
-    <t>Toy Story 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-55bb8618-baac-449e-9f63-f402f41371a2</t>
-  </si>
-  <si>
-    <t>Toy Story 3</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-95e7b2ce-5f45-4923-976d-b7e9968a7357</t>
-  </si>
-  <si>
-    <t>Toy Story 4</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-97d822a3-7dad-4d85-8350-ce4f8642511e</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-9f16a71b-8f93-455e-8d40-ae72d3dde6f7</t>
-  </si>
-  <si>
-    <t>Lilo And Stitch</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-e291d4ea-cd86-4eb2-9f39-20d2b75165ee</t>
-  </si>
-  <si>
-    <t>Lilo And Stitch 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-75793e68-892b-4c84-b095-43d6de2835ef</t>
-  </si>
-  <si>
-    <t>Cars</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-9c1b0ec2-2e4e-4717-89fb-bdf3a45523df</t>
-  </si>
-  <si>
-    <t>Cars 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-fe92916d-0f0e-47ad-ad34-5931e59b42ea</t>
-  </si>
-  <si>
-    <t>Cars 3</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-610e18a4-d8d8-43b5-8051-672655e715f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 Dalmatians </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-8eed72cc-3c4a-41cf-8e98-44a6b7f8f8d3</t>
-  </si>
-  <si>
-    <t>101 Dalmatians 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-6d030186-6960-4cdf-8fe1-a4f04685fc7f</t>
-  </si>
-  <si>
-    <t>Alice In Wonderland</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-7ccabaf6-d01a-4163-a613-862f2c4f1446</t>
-  </si>
-  <si>
-    <t>Snow White</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-f51f7e6c-2d9a-443c-9831-f3cc22e822b4</t>
-  </si>
-  <si>
-    <t>Bambi</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-c5350c37-0c8f-4094-8e63-72bfef0a0b08</t>
-  </si>
-  <si>
-    <t>Bambi 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-10615472-1eb1-4566-ad47-162f8a501c27</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-92d66793-7198-45de-bfb6-84915256d855</t>
-  </si>
-  <si>
-    <t>Lady And The Tramp</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-f8a68a49-f7c3-417d-baed-1ff7c7b862de</t>
-  </si>
-  <si>
-    <t>Captain America 2011</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-8e68c43a-117c-4f4d-b217-0db106a1a614</t>
-  </si>
-  <si>
-    <t>Captain America 2014</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-ef333a5c-b855-4d3e-a7d9-d9e142b6dc7d</t>
-  </si>
-  <si>
-    <t>Captain America Civil War</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-2fe7e94e-8b24-4a75-8fc8-969c2a16959e</t>
-  </si>
-  <si>
-    <t>Fantastic 4</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-d6592baa-0dc6-4549-a0cb-3b93a3b0e260</t>
-  </si>
-  <si>
-    <t>Fantastic 4: Silver Surfer</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-06810fd3-a12e-4185-829b-36b3c814ce97</t>
-  </si>
-  <si>
-    <t>Zoey 101</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70297892?trackId=255824129</t>
-  </si>
-  <si>
-    <t>cartoon network</t>
-  </si>
-  <si>
-    <t>Power Puff Girls</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/70268720?trackId=14170068</t>
-  </si>
-  <si>
-    <t>F Is For Family</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80028553?trackId=14187053</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81262430?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Big Mouth</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/80117039?trackId=255824129</t>
-  </si>
-  <si>
-    <t>Clifford The Big Red Dog</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/watch/81286595?trackId=255824129</t>
-  </si>
-  <si>
-    <t>The Simpsons Movie</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-21cdf36d-d3ba-49f6-9dc6-b9d4e2a8be85</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 1994</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-404d8ab1-36ab-4e54-92da-9aa0c847c8c9</t>
-  </si>
-  <si>
-    <t>Spiderman Unlimited</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-c9317b3b-c319-4c71-af41-d152a21e0188</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 2017</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-9a45dce7-ab64-4da8-8089-47a87d5db9ec</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 1981</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-40b68b03-3047-4233-bec1-a304efdb9bfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiderman Ultimate </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-a2e424b4-ad77-4733-9f74-fd11222339a8</t>
-  </si>
-  <si>
-    <t>Curious George</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-29a4727e-6ac4-4b99-9e91-08c8d872c733</t>
-  </si>
-  <si>
-    <t>A Christmas Story</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F66378</t>
-  </si>
-  <si>
-    <t>Dear Santa</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F64785</t>
-  </si>
-  <si>
-    <t>An American Pickle</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62110</t>
-  </si>
-  <si>
-    <t>Major Payne</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61601</t>
-  </si>
-  <si>
-    <t>Shaun of the Dead</t>
-  </si>
-  <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52261</t>
-  </si>
-  <si>
     <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F65352</t>
   </si>
   <si>
@@ -1343,13 +1422,454 @@
   </si>
   <si>
     <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F53485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predator </t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61373</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50564</t>
+  </si>
+  <si>
+    <t>Beetlejuice Beetlejuice</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62060</t>
+  </si>
+  <si>
+    <t>Bill and Ted's Excellent Adventure</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13421</t>
+  </si>
+  <si>
+    <t>Bill and Ted's Bogus Journey</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13424</t>
+  </si>
+  <si>
+    <t>Free Willy</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20982</t>
+  </si>
+  <si>
+    <t>The Mask</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18449</t>
+  </si>
+  <si>
+    <t>Mallrats</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12631</t>
+  </si>
+  <si>
+    <t>Space Jam</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18445</t>
+  </si>
+  <si>
+    <t>There's Something About Mary</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50053</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/ab7c4e29-04f1-46dd-931a-d43be1ce0f8c</t>
+  </si>
+  <si>
+    <t>Up!</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f820c0a3-e646-4b75-8dd1-87f6d776c32b</t>
+  </si>
+  <si>
+    <t>Monsters, Inc</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/3c90b85f-ba5e-4351-be87-e625d5706952</t>
+  </si>
+  <si>
+    <t>Monsters University</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/9b76e5cf-4005-4f0b-ae54-e65f3a6ccb61</t>
+  </si>
+  <si>
+    <t>The Incredibles</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/850b6e92-07ea-4211-b3c3-cbbf1de045fa</t>
+  </si>
+  <si>
+    <t>The Incredibles 2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/9da2c0fb-a380-4180-b67f-006fbaaa89ab</t>
+  </si>
+  <si>
+    <t>Jimmy Neutron</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/ndRTx6v7aKIC4rvNZLHluIOthQL3Q8_R/</t>
+  </si>
+  <si>
+    <t>Dora The Explorer</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/HSWUaepdEz7DJfz4et_I8x14Cl35HEIA/</t>
+  </si>
+  <si>
+    <t>Go Diego Go</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/UhDxutEdkQo_JjUPuetV2Mj6lKsP8nnv/</t>
+  </si>
+  <si>
+    <t>The Spongebob Movie 2015</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/movies/video/sAZCTsPjbneY7yFs7uO8IAsUBDbGLxVU/#open</t>
+  </si>
+  <si>
+    <t>Ned's Declassified</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/OFQjWrsWVJC2lfwg8LBlW8HKEGvx5Daf/</t>
+  </si>
+  <si>
+    <t>Honey I Shrunk The Kids</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/d3bd4647-6ecf-4aac-a4a5-6a9e7aa84580</t>
+  </si>
+  <si>
+    <t>Honey I Blew Up The Kid</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/b009ca82-33e8-4122-886f-cc6687a097fd</t>
+  </si>
+  <si>
+    <t>Honey We Shrunk Ourselves</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/a212f2c3-a4a7-49c8-af82-c3128941adba</t>
+  </si>
+  <si>
+    <t>Samurai Jack</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/066c6fd5-d341-49ea-b31b-0ad14597a25d/8ec44f3c-4119-4dff-821c-d37d48f73c63</t>
+  </si>
+  <si>
+    <t>Courage The Cowardly Dog</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/3e011553-761a-4624-96b9-8a3c05984494/2939891c-3395-4cb7-a230-84023be18a1d</t>
+  </si>
+  <si>
+    <t>Total Drama</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70252059?trackId=268410292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teen Titans Go </t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/32db6f40-f526-4044-b87f-97a763c6a094</t>
+  </si>
+  <si>
+    <t>The Sandlot</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f1950b3f-9738-4567-b036-edd27c7eb1cd</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/ef7d1c40-2ecc-471a-81a5-7fe06400240a/9fd99a5d-9c14-44e0-a3ec-95e4ce217afb</t>
+  </si>
+  <si>
+    <t>The Brak Show</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/23521a58-405f-4d37-b105-40e910ff0aa5/ef28a905-7193-4dc0-a97b-1ca221c81c21</t>
+  </si>
+  <si>
+    <t>Robot Chicken</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/56899048-6d37-44c8-bb53-8ccb28e97171/3eb4decf-c229-49c9-8905-9d63f22364ee</t>
+  </si>
+  <si>
+    <t>The Tom and Jerry Show</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/d72415fe-dcba-48d2-9e66-b75659abd034/2d1ba724-af2c-42ce-98cb-3ac47ef7a746</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/292e7914-6e3f-42ca-a9b5-e4c7a13fc72b/479713f5-ca96-49a1-ae01-2d8513aec6d1</t>
+  </si>
+  <si>
+    <t>New Looney Tunes</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/4e2749e8-8bca-45e9-8070-f62dc4488d56/12b77f28-2dbc-4dec-b61a-4abc849615f4</t>
+  </si>
+  <si>
+    <t>The Yogi Bear Show</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/f4ae3a84-ade6-4845-9cee-93954ac57159/ed9af98f-624b-4f4f-a673-e8ac82b21c83</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/2229b7f7-c28c-46d3-9a56-13146b22959e/5f194c35-7213-45bc-af44-5c9d63eef054</t>
+  </si>
+  <si>
+    <t>The Jetsons</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/6e0faa0e-4b65-4256-8dd2-797d7a411dd9/f3beed6f-dc46-4399-b2f9-e422af31ae1f</t>
+  </si>
+  <si>
+    <t>Scooby Doo and Scrappy Doo</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/592b7d33-ba54-411f-ac63-d58d2c9fb0dc/ed8b2369-f3f8-4564-b85f-f0957c64d9ad</t>
+  </si>
+  <si>
+    <t>The Scooby Doo Show</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/4724d881-fa34-44d1-9bfc-356ea8304965/dc41bf88-c335-4dd4-9438-92042ed9abcd</t>
+  </si>
+  <si>
+    <t>Little Bear</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/OWXJOTwuAJByGrvI9cuXYtMrI5Yn8H9d/</t>
+  </si>
+  <si>
+    <t>Danny Phantom</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/zDY_AQkGas2_BGmnzXIT11StCpnkpCIv/</t>
+  </si>
+  <si>
+    <t>The Fairly Odd Parents</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/FAGiO7U6URfQugUDfnzLVeY_GQWRmrPT/</t>
+  </si>
+  <si>
+    <t>Rugrats: All Grown Up</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/shows/video/ujbB8PvQiFgdYGGjO51bcbQAYeaJ6sOd/</t>
+  </si>
+  <si>
+    <t>The Rugrats Movie 1998</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/movies/video/3PKc3wU4QaGWISaQPQ7Tl783TZX2lI5A/#open</t>
+  </si>
+  <si>
+    <t>Rugrats In Paris 2000</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/movies/video/ckBcDdjsDjzmwL8DUg_lCDmg9wlbyCSC/#open</t>
+  </si>
+  <si>
+    <t>Rugrats Go Wild 2003</t>
+  </si>
+  <si>
+    <t>https://www.paramountplus.com/movies/video/AedHxovYScgK5eJy4utoMNHP_RUmXnCE/#open</t>
+  </si>
+  <si>
+    <t>The Hangover</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/aebfc4dc-f318-4143-8cdb-3d7d6c923049/bb6f248b-1afd-472a-85b8-6f649895dcd0</t>
+  </si>
+  <si>
+    <t>Observe and Report</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/80c236b6-5574-4138-828c-62f9f18e5912/534f5e1a-beba-44ad-917c-064a4940cf80</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/a1f8bcdd-0a6c-408f-b9fa-9b49c44790ff/22543923-602e-487f-931b-0a7bc82f509c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mystery Men </t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F108</t>
+  </si>
+  <si>
+    <t>Transfortmers One</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F60749</t>
+  </si>
+  <si>
+    <t>Office Space</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18841</t>
+  </si>
+  <si>
+    <t>Dogma</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12632</t>
+  </si>
+  <si>
+    <t>Scary Movie</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F51100</t>
+  </si>
+  <si>
+    <t>Scary Movie 2</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58047</t>
+  </si>
+  <si>
+    <t>Scary Movie 3</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58046</t>
+  </si>
+  <si>
+    <t>Scary Movie 4</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58045</t>
+  </si>
+  <si>
+    <t>Mickey Mouse Clubhouse</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/d17b8bb0-2d17-4002-afbf-71e122b4157d</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>Love Island</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/59f1ed83-a68a-4e8a-8b08-09342ddfc13a</t>
+  </si>
+  <si>
+    <t>Are You The One?</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/15178ac0-9258-4451-acb8-bcb13aa432d5</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/d5c270d3-e31c-45c0-9f25-92fd2571f6a8</t>
+  </si>
+  <si>
+    <t>Lizzie Mcguire</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/browse/entity-a5525471-bb5a-4367-b7a3-52a69dbfbad8</t>
+  </si>
+  <si>
+    <t>Hanna Montana</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/a8155a8b-d618-4f88-a64a-34bc585c79d7</t>
+  </si>
+  <si>
+    <t>The Suite Life of Zack and Cody</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/c623aee3-4da1-4354-909d-3763cc9a2b51</t>
+  </si>
+  <si>
+    <t>Wizards Of Waverly Place</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/475abeb0-1d6d-4958-8303-ae14b1c57f27</t>
+  </si>
+  <si>
+    <t>An Extremely Goofy Movie</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/f12466f8-6871-43ba-9463-b5f352f4d6ca</t>
+  </si>
+  <si>
+    <t>A Goofy Movie</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/dc9c2716-f06a-498d-b689-66f6bf70480d</t>
+  </si>
+  <si>
+    <t>Bob's Burgers</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/play/ed5bdafa-0eee-4f10-8675-5cd8afc7780f</t>
+  </si>
+  <si>
+    <t>Naked and Afraid Of Love</t>
+  </si>
+  <si>
+    <t>https://play.max.com/video/watch/1d08319c-731c-4633-a346-fa656e386431/76ca9ce1-0493-4113-85fe-cc23495c04fd</t>
+  </si>
+  <si>
+    <t>Too Hot To Handle</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/80240786?trackId=260451190</t>
+  </si>
+  <si>
+    <t>Down For Love</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81677537?trackId=254779213</t>
+  </si>
+  <si>
+    <t>Love On The Spectrum</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/81473582?trackId=253863245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,8 +2422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}" name="Table4" displayName="Table4" ref="A1:D206" totalsRowShown="0">
-  <autoFilter ref="A1:D206" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}" name="Table4" displayName="Table4" ref="A1:D288" totalsRowShown="0">
+  <autoFilter ref="A1:D288" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DDF01564-918D-44FC-B1E2-44FD1D2C11B3}" name="type"/>
     <tableColumn id="2" xr3:uid="{0463143E-5987-4E58-A405-1E9EF1DC829B}" name="genre"/>
@@ -2231,21 +2751,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A568168-7DDB-4797-892A-AB0658C0EAE1}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="141.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2301,26 +2821,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2329,26 +2849,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2357,7 +2877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2385,68 +2905,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2455,698 +2975,698 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>141</v>
@@ -3155,12 +3675,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
         <v>143</v>
@@ -3169,12 +3689,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>145</v>
@@ -3183,82 +3703,82 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
         <v>147</v>
       </c>
-      <c r="D68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" t="s">
-        <v>153</v>
-      </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
         <v>159</v>
@@ -3267,12 +3787,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
         <v>161</v>
@@ -3281,12 +3801,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>163</v>
@@ -3295,208 +3815,208 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
         <v>165</v>
       </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" t="s">
-        <v>158</v>
-      </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
         <v>196</v>
@@ -3505,12 +4025,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
         <v>198</v>
@@ -3519,166 +4039,166 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>201</v>
       </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>203</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
         <v>204</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>206</v>
       </c>
-      <c r="D94" t="s">
+      <c r="B95" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>208</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>209</v>
       </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>211</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
         <v>212</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C97" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>214</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" t="s">
         <v>215</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C98" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D98" t="s">
         <v>217</v>
       </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
         <v>218</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
         <v>220</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C100" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>222</v>
       </c>
-      <c r="D100" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" t="s">
-        <v>135</v>
-      </c>
       <c r="C101" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
         <v>226</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C102" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>217</v>
-      </c>
-      <c r="B102" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>228</v>
       </c>
-      <c r="D102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
         <v>230</v>
@@ -3687,12 +4207,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
         <v>232</v>
@@ -3701,12 +4221,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
         <v>234</v>
@@ -3715,12 +4235,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
         <v>236</v>
@@ -3729,12 +4249,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C107" t="s">
         <v>238</v>
@@ -3743,12 +4263,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
         <v>240</v>
@@ -3757,9 +4277,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3771,12 +4291,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>244</v>
@@ -3785,12 +4305,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>246</v>
@@ -3799,12 +4319,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>248</v>
@@ -3813,12 +4333,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>250</v>
@@ -3827,12 +4347,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>252</v>
@@ -3841,12 +4361,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>254</v>
@@ -3855,12 +4375,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
         <v>256</v>
@@ -3869,12 +4389,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
         <v>258</v>
@@ -3883,992 +4403,992 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
         <v>260</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>261</v>
       </c>
-      <c r="D118" t="s">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>29</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>270</v>
+      </c>
+      <c r="D123" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" t="s">
+        <v>279</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" t="s">
+        <v>283</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C119" t="s">
-        <v>263</v>
-      </c>
-      <c r="D119" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" t="s">
-        <v>266</v>
-      </c>
-      <c r="D120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>29</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C130" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C121" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" t="s">
-        <v>270</v>
-      </c>
-      <c r="D122" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" t="s">
-        <v>153</v>
-      </c>
-      <c r="C123" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" t="s">
-        <v>278</v>
-      </c>
-      <c r="D126" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" t="s">
-        <v>280</v>
-      </c>
-      <c r="D127" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B128" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C132" t="s">
+        <v>290</v>
+      </c>
+      <c r="D132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+      <c r="D135" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" t="s">
+        <v>298</v>
+      </c>
+      <c r="D136" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
+        <v>302</v>
+      </c>
+      <c r="D138" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
+        <v>304</v>
+      </c>
+      <c r="D139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C129" t="s">
-        <v>284</v>
-      </c>
-      <c r="D129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130" t="s">
-        <v>286</v>
-      </c>
-      <c r="C130" t="s">
-        <v>287</v>
-      </c>
-      <c r="D130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>29</v>
-      </c>
-      <c r="B131" t="s">
-        <v>286</v>
-      </c>
-      <c r="C131" t="s">
-        <v>289</v>
-      </c>
-      <c r="D131" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>29</v>
-      </c>
-      <c r="B132" t="s">
-        <v>286</v>
-      </c>
-      <c r="C132" t="s">
-        <v>291</v>
-      </c>
-      <c r="D132" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>29</v>
-      </c>
-      <c r="B133" t="s">
-        <v>286</v>
-      </c>
-      <c r="C133" t="s">
-        <v>293</v>
-      </c>
-      <c r="D133" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" t="s">
-        <v>295</v>
-      </c>
-      <c r="D134" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" t="s">
+        <v>311</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
+        <v>313</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" t="s">
+        <v>315</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>41</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
-        <v>297</v>
-      </c>
-      <c r="D135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" t="s">
-        <v>300</v>
-      </c>
-      <c r="D136" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" t="s">
-        <v>299</v>
-      </c>
-      <c r="C137" t="s">
-        <v>302</v>
-      </c>
-      <c r="D137" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" t="s">
-        <v>299</v>
-      </c>
-      <c r="C138" t="s">
-        <v>304</v>
-      </c>
-      <c r="D138" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>29</v>
-      </c>
-      <c r="B139" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" t="s">
-        <v>306</v>
-      </c>
-      <c r="D139" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>29</v>
-      </c>
-      <c r="B140" t="s">
-        <v>299</v>
-      </c>
-      <c r="C140" t="s">
-        <v>308</v>
-      </c>
-      <c r="D140" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>29</v>
-      </c>
-      <c r="B141" t="s">
-        <v>299</v>
-      </c>
-      <c r="C141" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B142" t="s">
-        <v>299</v>
-      </c>
-      <c r="C142" t="s">
-        <v>312</v>
-      </c>
-      <c r="D142" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" t="s">
-        <v>299</v>
-      </c>
-      <c r="C143" t="s">
-        <v>314</v>
-      </c>
-      <c r="D143" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>217</v>
-      </c>
-      <c r="B144" t="s">
-        <v>135</v>
-      </c>
-      <c r="C144" t="s">
-        <v>316</v>
-      </c>
-      <c r="D144" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>217</v>
-      </c>
-      <c r="B145" t="s">
-        <v>135</v>
-      </c>
-      <c r="C145" t="s">
-        <v>318</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C146" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>217</v>
-      </c>
-      <c r="B146" t="s">
-        <v>135</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D146" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D146" t="s">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>29</v>
-      </c>
-      <c r="B147" t="s">
-        <v>140</v>
       </c>
       <c r="C147" t="s">
         <v>322</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="C148" t="s">
         <v>324</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="C149" t="s">
         <v>326</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="C150" t="s">
         <v>328</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" t="s">
         <v>332</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D152" t="s">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>41</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>29</v>
-      </c>
-      <c r="B153" t="s">
-        <v>332</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D153" t="s">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>29</v>
-      </c>
-      <c r="B154" t="s">
-        <v>332</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D154" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D154" t="s">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C155" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>29</v>
-      </c>
-      <c r="B155" t="s">
-        <v>332</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>339</v>
       </c>
-      <c r="D155" t="s">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>29</v>
-      </c>
-      <c r="B156" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>341</v>
       </c>
-      <c r="D156" t="s">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>29</v>
-      </c>
-      <c r="B157" t="s">
-        <v>332</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>343</v>
       </c>
-      <c r="D157" t="s">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>29</v>
-      </c>
-      <c r="B158" t="s">
-        <v>332</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>345</v>
       </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>29</v>
-      </c>
-      <c r="B159" t="s">
-        <v>332</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>347</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" t="s">
-        <v>332</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>349</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>29</v>
-      </c>
-      <c r="B161" t="s">
-        <v>332</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D161" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>29</v>
-      </c>
-      <c r="B162" t="s">
-        <v>332</v>
       </c>
       <c r="C162" t="s">
         <v>353</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B163" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C163" t="s">
         <v>355</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C164" t="s">
         <v>357</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C165" t="s">
         <v>359</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C166" t="s">
         <v>361</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C167" t="s">
         <v>363</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C168" t="s">
         <v>365</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C169" t="s">
         <v>367</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C170" t="s">
         <v>369</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C171" t="s">
         <v>371</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="C172" t="s">
         <v>373</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
         <v>375</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
         <v>377</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="C175" t="s">
         <v>379</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="C176" t="s">
         <v>381</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="C177" t="s">
         <v>383</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
         <v>385</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>41</v>
+      </c>
+      <c r="B179" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>217</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D179" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>217</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="D180" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D180" t="s">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>217</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="D181" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D181" t="s">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>29</v>
-      </c>
-      <c r="B182" t="s">
-        <v>26</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="D182" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>29</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D183" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D183" t="s">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>217</v>
-      </c>
-      <c r="B184" t="s">
-        <v>30</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="D184" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D184" t="s">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>217</v>
-      </c>
-      <c r="B185" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D185" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D185" t="s">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>217</v>
-      </c>
-      <c r="B186" t="s">
-        <v>30</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D186" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D186" t="s">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>217</v>
-      </c>
-      <c r="B187" t="s">
-        <v>30</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>404</v>
       </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>229</v>
+      </c>
+      <c r="B188" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>217</v>
-      </c>
-      <c r="B188" t="s">
-        <v>30</v>
       </c>
       <c r="C188" t="s">
         <v>406</v>
@@ -4877,12 +5397,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>408</v>
@@ -4891,12 +5411,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B190" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>410</v>
@@ -4905,12 +5425,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>412</v>
@@ -4919,12 +5439,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
         <v>414</v>
@@ -4933,9 +5453,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -4943,185 +5463,1477 @@
       <c r="C193" t="s">
         <v>416</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C194" t="s">
         <v>418</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
-      </c>
-      <c r="D195" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="C196" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B197" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="C197" t="s">
-        <v>422</v>
-      </c>
-      <c r="D197" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>425</v>
-      </c>
-      <c r="D198" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>427</v>
-      </c>
-      <c r="D199" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="B200" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="C200" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D200" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
+        <v>41</v>
+      </c>
+      <c r="B201" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" t="s">
+        <v>432</v>
+      </c>
+      <c r="D201" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>41</v>
+      </c>
+      <c r="B202" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" t="s">
+        <v>434</v>
+      </c>
+      <c r="D202" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>41</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>436</v>
+      </c>
+      <c r="D203" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>438</v>
+      </c>
+      <c r="D204" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205" t="s">
+        <v>147</v>
+      </c>
+      <c r="C205" t="s">
+        <v>440</v>
+      </c>
+      <c r="D205" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>229</v>
+      </c>
+      <c r="B207" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207" t="s">
+        <v>443</v>
+      </c>
+      <c r="D207" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>445</v>
+      </c>
+      <c r="B208" t="s">
+        <v>170</v>
+      </c>
+      <c r="C208" t="s">
+        <v>446</v>
+      </c>
+      <c r="D208" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>445</v>
+      </c>
+      <c r="B209" t="s">
+        <v>170</v>
+      </c>
+      <c r="C209" t="s">
+        <v>448</v>
+      </c>
+      <c r="D209" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>445</v>
+      </c>
+      <c r="B210" t="s">
+        <v>170</v>
+      </c>
+      <c r="C210" t="s">
+        <v>450</v>
+      </c>
+      <c r="D210" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>41</v>
+      </c>
+      <c r="B211" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" t="s">
+        <v>452</v>
+      </c>
+      <c r="D211" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" t="s">
+        <v>147</v>
+      </c>
+      <c r="C213" t="s">
+        <v>456</v>
+      </c>
+      <c r="D213" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" t="s">
+        <v>147</v>
+      </c>
+      <c r="C214" t="s">
+        <v>458</v>
+      </c>
+      <c r="D214" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>229</v>
+      </c>
+      <c r="B215" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" t="s">
+        <v>460</v>
+      </c>
+      <c r="D215" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" t="s">
+        <v>462</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>41</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>464</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>41</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>466</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>468</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>470</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>472</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>474</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>476</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>478</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>480</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>41</v>
+      </c>
+      <c r="B226" t="s">
+        <v>352</v>
+      </c>
+      <c r="C226" t="s">
+        <v>482</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>41</v>
+      </c>
+      <c r="B227" t="s">
+        <v>352</v>
+      </c>
+      <c r="C227" t="s">
+        <v>484</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>41</v>
+      </c>
+      <c r="B228" t="s">
+        <v>352</v>
+      </c>
+      <c r="C228" t="s">
+        <v>486</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>41</v>
+      </c>
+      <c r="B229" t="s">
+        <v>352</v>
+      </c>
+      <c r="C229" t="s">
+        <v>488</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>41</v>
+      </c>
+      <c r="B230" t="s">
+        <v>352</v>
+      </c>
+      <c r="C230" t="s">
+        <v>490</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>41</v>
+      </c>
+      <c r="B231" t="s">
+        <v>352</v>
+      </c>
+      <c r="C231" t="s">
+        <v>492</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="s">
+        <v>494</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="s">
+        <v>496</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="s">
+        <v>498</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>41</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>500</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+      <c r="B236" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" t="s">
+        <v>502</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>41</v>
+      </c>
+      <c r="B237" t="s">
+        <v>321</v>
+      </c>
+      <c r="C237" t="s">
+        <v>504</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>41</v>
+      </c>
+      <c r="B238" t="s">
+        <v>321</v>
+      </c>
+      <c r="C238" t="s">
+        <v>506</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" t="s">
+        <v>321</v>
+      </c>
+      <c r="C239" t="s">
+        <v>508</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>229</v>
+      </c>
+      <c r="B240" t="s">
+        <v>405</v>
+      </c>
+      <c r="C240" t="s">
+        <v>510</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" t="s">
+        <v>405</v>
+      </c>
+      <c r="C241" t="s">
+        <v>512</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>229</v>
+      </c>
+      <c r="B242" t="s">
+        <v>405</v>
+      </c>
+      <c r="C242" t="s">
+        <v>514</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>229</v>
+      </c>
+      <c r="B243" t="s">
+        <v>405</v>
+      </c>
+      <c r="C243" t="s">
+        <v>516</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s">
+        <v>518</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>229</v>
+      </c>
+      <c r="B245" t="s">
+        <v>405</v>
+      </c>
+      <c r="C245" t="s">
+        <v>520</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>229</v>
+      </c>
+      <c r="B246" t="s">
+        <v>405</v>
+      </c>
+      <c r="C246" t="s">
+        <v>522</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>229</v>
+      </c>
+      <c r="B247" t="s">
+        <v>405</v>
+      </c>
+      <c r="C247" t="s">
+        <v>524</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>229</v>
+      </c>
+      <c r="B248" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248" t="s">
+        <v>526</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>229</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" t="s">
+        <v>528</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>229</v>
+      </c>
+      <c r="B250" t="s">
+        <v>38</v>
+      </c>
+      <c r="C250" t="s">
+        <v>530</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>229</v>
+      </c>
+      <c r="B251" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" t="s">
+        <v>532</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>229</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" t="s">
+        <v>534</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>229</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
+      </c>
+      <c r="C253" t="s">
+        <v>536</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>229</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" t="s">
+        <v>538</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>229</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
+        <v>540</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>229</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>542</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>229</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>544</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>229</v>
+      </c>
+      <c r="B258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" t="s">
+        <v>546</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>229</v>
+      </c>
+      <c r="B259" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" t="s">
+        <v>548</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>550</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" t="s">
+        <v>552</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" t="s">
+        <v>554</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" t="s">
+        <v>556</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" t="s">
+        <v>287</v>
+      </c>
+      <c r="C264" t="s">
+        <v>558</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>41</v>
+      </c>
+      <c r="B265" t="s">
+        <v>287</v>
+      </c>
+      <c r="C265" t="s">
+        <v>560</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>41</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" t="s">
+        <v>562</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>41</v>
+      </c>
+      <c r="B267" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" t="s">
+        <v>564</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>41</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>566</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>41</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" t="s">
+        <v>568</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" t="s">
+        <v>570</v>
+      </c>
+      <c r="C270" t="s">
+        <v>570</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>41</v>
+      </c>
+      <c r="B271" t="s">
+        <v>570</v>
+      </c>
+      <c r="C271" t="s">
+        <v>572</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" t="s">
+        <v>570</v>
+      </c>
+      <c r="C272" t="s">
+        <v>574</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>41</v>
+      </c>
+      <c r="B273" t="s">
+        <v>570</v>
+      </c>
+      <c r="C273" t="s">
+        <v>576</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>229</v>
+      </c>
+      <c r="B274" t="s">
         <v>29</v>
       </c>
-      <c r="B201" t="s">
-        <v>26</v>
-      </c>
-      <c r="C201" t="s">
-        <v>431</v>
-      </c>
-      <c r="D201" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C274" t="s">
+        <v>578</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" t="s">
+        <v>580</v>
+      </c>
+      <c r="C275" t="s">
+        <v>581</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>229</v>
+      </c>
+      <c r="B276" t="s">
+        <v>580</v>
+      </c>
+      <c r="C276" t="s">
+        <v>583</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>229</v>
+      </c>
+      <c r="B277" t="s">
         <v>29</v>
       </c>
-      <c r="B202" t="s">
-        <v>26</v>
-      </c>
-      <c r="C202" t="s">
-        <v>433</v>
-      </c>
-      <c r="D202" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C277" t="s">
+        <v>585</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>229</v>
+      </c>
+      <c r="B278" t="s">
         <v>29</v>
       </c>
-      <c r="B203" t="s">
-        <v>135</v>
-      </c>
-      <c r="C203" t="s">
-        <v>435</v>
-      </c>
-      <c r="D203" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C278" t="s">
+        <v>587</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>229</v>
+      </c>
+      <c r="B279" t="s">
         <v>29</v>
       </c>
-      <c r="B204" t="s">
-        <v>135</v>
-      </c>
-      <c r="C204" t="s">
-        <v>437</v>
-      </c>
-      <c r="D204" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>217</v>
-      </c>
-      <c r="B205" t="s">
-        <v>26</v>
-      </c>
-      <c r="C205" t="s">
-        <v>439</v>
-      </c>
-      <c r="D205" t="s">
-        <v>440</v>
+      <c r="C279" t="s">
+        <v>589</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>229</v>
+      </c>
+      <c r="B280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280" t="s">
+        <v>591</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>229</v>
+      </c>
+      <c r="B281" t="s">
+        <v>29</v>
+      </c>
+      <c r="C281" t="s">
+        <v>593</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>41</v>
+      </c>
+      <c r="B282" t="s">
+        <v>321</v>
+      </c>
+      <c r="C282" t="s">
+        <v>595</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>41</v>
+      </c>
+      <c r="B283" t="s">
+        <v>321</v>
+      </c>
+      <c r="C283" t="s">
+        <v>597</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>229</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" t="s">
+        <v>599</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>229</v>
+      </c>
+      <c r="B285" t="s">
+        <v>580</v>
+      </c>
+      <c r="C285" t="s">
+        <v>601</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>229</v>
+      </c>
+      <c r="B286" t="s">
+        <v>580</v>
+      </c>
+      <c r="C286" t="s">
+        <v>603</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>229</v>
+      </c>
+      <c r="B287" t="s">
+        <v>580</v>
+      </c>
+      <c r="C287" t="s">
+        <v>605</v>
+      </c>
+      <c r="D287" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>229</v>
+      </c>
+      <c r="B288" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" t="s">
+        <v>607</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D123" r:id="rId1" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457" xr:uid="{B222B584-5A02-443B-8FEF-66301958BAFF}"/>
+    <hyperlink ref="D134" r:id="rId1" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457" xr:uid="{B222B584-5A02-443B-8FEF-66301958BAFF}"/>
+    <hyperlink ref="D216" r:id="rId2" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61373" xr:uid="{7DCA17E7-4DB0-4973-B3CB-2E7BF907F055}"/>
+    <hyperlink ref="D217" r:id="rId3" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50564" xr:uid="{B0473A44-24FB-416D-9CEA-B10C05B7C585}"/>
+    <hyperlink ref="D218" r:id="rId4" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62060" xr:uid="{F4527EAA-B8DB-4E4F-A33B-44ADE449C9CF}"/>
+    <hyperlink ref="D220" r:id="rId5" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13424" xr:uid="{7B636DA2-BAEB-4D25-9C75-4643A4943C7A}"/>
+    <hyperlink ref="D221" r:id="rId6" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20982" xr:uid="{15BD7191-5989-4112-8F21-33EB16E7159C}"/>
+    <hyperlink ref="D222" r:id="rId7" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18449" xr:uid="{CACC0E19-8034-4A0C-BDAB-7E08462E836F}"/>
+    <hyperlink ref="D223" r:id="rId8" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12631" xr:uid="{71B9C30E-B188-470B-9E3A-ACC2ABCA4AA7}"/>
+    <hyperlink ref="D224" r:id="rId9" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18445" xr:uid="{CD618DF5-385D-4421-9FBB-607E31CD83B0}"/>
+    <hyperlink ref="D225" r:id="rId10" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50053" xr:uid="{DE99DB3F-8EC7-4118-AE27-92DB5B300712}"/>
+    <hyperlink ref="D226" r:id="rId11" xr:uid="{D6472BB0-97AD-455C-9634-522A036BC7DA}"/>
+    <hyperlink ref="D227" r:id="rId12" xr:uid="{F649317B-2DF0-4CC0-86D1-4F2CFA216C54}"/>
+    <hyperlink ref="D228" r:id="rId13" xr:uid="{E5F96217-D4A5-4424-A60C-BC169E58130E}"/>
+    <hyperlink ref="D231" r:id="rId14" xr:uid="{0A2DEA23-45C1-44C7-B3F7-BA0511963436}"/>
+    <hyperlink ref="D232" r:id="rId15" xr:uid="{6EA09EB9-8513-4BD6-B897-3332399FF770}"/>
+    <hyperlink ref="D235" r:id="rId16" location="open" xr:uid="{D1B342EC-F093-45FF-9730-33AED68B5926}"/>
+    <hyperlink ref="D234" r:id="rId17" xr:uid="{2324F427-9CEA-4703-974E-73743528F7F2}"/>
+    <hyperlink ref="D233" r:id="rId18" xr:uid="{DE156B9A-7FF4-4935-9F77-45B0C8AD2EEA}"/>
+    <hyperlink ref="D237" r:id="rId19" xr:uid="{07DFD93B-BA75-4C4E-8750-7B48B409F5D1}"/>
+    <hyperlink ref="D239" r:id="rId20" xr:uid="{C51C9600-EFD1-4AFB-82E1-CD518CFAC201}"/>
+    <hyperlink ref="D229" r:id="rId21" xr:uid="{8CBFA309-3772-4DE8-8B8E-E35BB4368C1D}"/>
+    <hyperlink ref="D230" r:id="rId22" xr:uid="{6F963AB9-9CAC-4917-AA06-67E33BF30BD7}"/>
+    <hyperlink ref="D141" r:id="rId23" xr:uid="{F36074D8-92B4-41AE-87CF-844C3D876D9B}"/>
+    <hyperlink ref="D142" r:id="rId24" xr:uid="{25F815D5-CA2A-4ABD-A85E-48E8CCD03043}"/>
+    <hyperlink ref="D143" r:id="rId25" xr:uid="{7BEBB07E-3F8D-4FA4-97D1-2C42C63C34B6}"/>
+    <hyperlink ref="D144" r:id="rId26" xr:uid="{F1A68C74-9BBE-4F2C-95AF-710D6CB2AAF3}"/>
+    <hyperlink ref="D145" r:id="rId27" xr:uid="{F39AF291-8F14-4772-99C1-DED28DB50A2E}"/>
+    <hyperlink ref="D146" r:id="rId28" xr:uid="{4B6C0F07-26B8-4B44-BC67-F7231E6A4665}"/>
+    <hyperlink ref="D147" r:id="rId29" xr:uid="{67918D58-14FB-4F77-8321-AB4B66BA729E}"/>
+    <hyperlink ref="D148" r:id="rId30" xr:uid="{A5CD58C2-11C8-450D-9C2E-90D9E538DA15}"/>
+    <hyperlink ref="D149" r:id="rId31" xr:uid="{57BD0184-58BC-422B-A865-F810EC7D998E}"/>
+    <hyperlink ref="D150" r:id="rId32" xr:uid="{52E7527F-DFDA-451F-993B-1653832C5117}"/>
+    <hyperlink ref="D151" r:id="rId33" xr:uid="{78C026C7-97C3-4CA5-BEE9-454CE601C04D}"/>
+    <hyperlink ref="D152" r:id="rId34" xr:uid="{06447BE1-1380-42FD-A08B-A40DA0F9865E}"/>
+    <hyperlink ref="D153" r:id="rId35" xr:uid="{B286541F-B6B1-4882-A28A-112BA6548128}"/>
+    <hyperlink ref="D154" r:id="rId36" xr:uid="{4373F4BC-0CD8-4244-9272-1650CB56BFD1}"/>
+    <hyperlink ref="D161" r:id="rId37" xr:uid="{6F2D2AF6-DA06-4C05-A342-3B8E6759BA3C}"/>
+    <hyperlink ref="D162" r:id="rId38" xr:uid="{6FE6C17F-6133-422E-AF4E-DD9E668F21AF}"/>
+    <hyperlink ref="D163" r:id="rId39" xr:uid="{C3CF1A13-0459-4733-883B-6120D53EF2C8}"/>
+    <hyperlink ref="D164" r:id="rId40" xr:uid="{BFD6AFF8-7831-48A9-BA42-2E149BFF6522}"/>
+    <hyperlink ref="D165" r:id="rId41" xr:uid="{F64253FC-F54E-46EA-A000-74C90183A92E}"/>
+    <hyperlink ref="D166" r:id="rId42" xr:uid="{14450188-A9BC-4511-9958-CED81B39DE4A}"/>
+    <hyperlink ref="D167" r:id="rId43" xr:uid="{A649D737-648F-4141-BD16-9600BFA7851D}"/>
+    <hyperlink ref="D168" r:id="rId44" xr:uid="{20A34F67-C733-4EBB-B40E-8FB988DD953C}"/>
+    <hyperlink ref="D169" r:id="rId45" xr:uid="{F10693C7-5C36-4C19-8DF2-8095791A3AFB}"/>
+    <hyperlink ref="D170" r:id="rId46" xr:uid="{266C3A3F-3FF0-4C18-92BB-4DB275EE422D}"/>
+    <hyperlink ref="D171" r:id="rId47" xr:uid="{B0D73AB9-B7D5-4D06-BEF2-7B466DFC0E5B}"/>
+    <hyperlink ref="D172" r:id="rId48" xr:uid="{4FE494D9-8FB6-4C51-9A77-3E75550A031E}"/>
+    <hyperlink ref="D173" r:id="rId49" xr:uid="{14CD4869-66CC-4BE7-B75D-29DC643D5102}"/>
+    <hyperlink ref="D174" r:id="rId50" xr:uid="{382909BE-703F-4FC4-B61A-A2AD18C5919E}"/>
+    <hyperlink ref="D175" r:id="rId51" xr:uid="{1CEC053F-D88E-4832-8EA1-32D20DA3C309}"/>
+    <hyperlink ref="D176" r:id="rId52" xr:uid="{7918B852-1E8D-425D-9173-7A4EAC41CAA1}"/>
+    <hyperlink ref="D177" r:id="rId53" xr:uid="{0395E6A9-6653-4EB5-A911-062621440ECA}"/>
+    <hyperlink ref="D178" r:id="rId54" xr:uid="{BB3AFCB1-AAC5-4152-939C-F33A2B199B49}"/>
+    <hyperlink ref="D179" r:id="rId55" xr:uid="{AA0B8465-1C93-4C93-8FB4-70EECCFD0BD1}"/>
+    <hyperlink ref="D181" r:id="rId56" xr:uid="{5C912F45-1BE8-48D4-B7C7-05279F0DF4F5}"/>
+    <hyperlink ref="D182" r:id="rId57" xr:uid="{26C6A804-2A4E-4798-BA96-FCDE4F2F5EAE}"/>
+    <hyperlink ref="D183" r:id="rId58" xr:uid="{52FE7D45-203F-4523-B991-083D94E9B4B0}"/>
+    <hyperlink ref="D184" r:id="rId59" xr:uid="{6F0F6C37-3DDB-4B66-9CFD-9F34DC4125BD}"/>
+    <hyperlink ref="D185" r:id="rId60" xr:uid="{A9D39B90-574E-482A-9E5C-780A52B1D5B1}"/>
+    <hyperlink ref="D186" r:id="rId61" xr:uid="{320AEF5F-4C69-4DAD-88E3-8AD7C6D026F7}"/>
+    <hyperlink ref="D193" r:id="rId62" xr:uid="{50A68BD6-31CE-476E-AE21-69260726461A}"/>
+    <hyperlink ref="D194" r:id="rId63" xr:uid="{D7107F20-174C-49B9-84C0-94FF1C95E527}"/>
+    <hyperlink ref="D195" r:id="rId64" xr:uid="{9A18C753-3CAE-4890-BC0D-B43603AF3199}"/>
+    <hyperlink ref="D196" r:id="rId65" xr:uid="{890C024D-DD73-49FB-8B68-6D2355454F76}"/>
+    <hyperlink ref="D197" r:id="rId66" xr:uid="{19CBF042-32D2-4063-8114-4537CFC12D84}"/>
+    <hyperlink ref="D198" r:id="rId67" xr:uid="{164FED3A-C109-4F21-8CF9-5C0775FB5C7B}"/>
+    <hyperlink ref="D199" r:id="rId68" xr:uid="{B8722FAF-EA43-4EB0-9CBD-853C398D904E}"/>
+    <hyperlink ref="D236" r:id="rId69" xr:uid="{270ABC6B-F507-4A8A-BB0E-F39E7AFF0A98}"/>
+    <hyperlink ref="D238" r:id="rId70" xr:uid="{4B231FFC-AD66-48BE-8039-CC43E3387CB5}"/>
+    <hyperlink ref="D240" r:id="rId71" xr:uid="{5DB3509F-E703-44C0-8AE3-92833853DD82}"/>
+    <hyperlink ref="D241" r:id="rId72" xr:uid="{1DAB6DD6-748C-4E44-8A81-AEC7D36B5D26}"/>
+    <hyperlink ref="D242" r:id="rId73" xr:uid="{DD2177AC-3B55-46A5-B500-838985FF06ED}"/>
+    <hyperlink ref="D243" r:id="rId74" xr:uid="{5EAAF9C3-95E1-4E34-BF44-EC139FE8D878}"/>
+    <hyperlink ref="D244" r:id="rId75" xr:uid="{CEE4988E-C1CD-49FE-A68A-E1496C687EF2}"/>
+    <hyperlink ref="D245" r:id="rId76" xr:uid="{12608495-DEEF-4A6A-96B0-31F878BD415D}"/>
+    <hyperlink ref="D246" r:id="rId77" xr:uid="{A32EC1D1-3C14-4C6B-918B-D797CED60BA5}"/>
+    <hyperlink ref="D247" r:id="rId78" xr:uid="{8214117D-542A-4D1C-BBC7-28656CEECBA6}"/>
+    <hyperlink ref="D248" r:id="rId79" xr:uid="{666EE373-1D5C-4EC9-B54A-FF80577D4E09}"/>
+    <hyperlink ref="D249" r:id="rId80" xr:uid="{04EE22D5-B998-4D91-AD75-8C6E584A67AB}"/>
+    <hyperlink ref="D250" r:id="rId81" xr:uid="{9DC0E031-E27B-429C-9299-9C64BA1BB582}"/>
+    <hyperlink ref="D251" r:id="rId82" xr:uid="{8625883B-648D-4746-B5A0-1E581546F350}"/>
+    <hyperlink ref="D252" r:id="rId83" xr:uid="{085D45BF-A947-4AD3-8559-BF2BE01F5076}"/>
+    <hyperlink ref="D253" r:id="rId84" xr:uid="{4A6F8314-6120-4471-99E7-59ADD1C3543C}"/>
+    <hyperlink ref="D254" r:id="rId85" xr:uid="{3B8665EB-2CA0-4014-830E-B7EA844198E7}"/>
+    <hyperlink ref="D255" r:id="rId86" xr:uid="{D57585BB-4A81-4E9F-8785-17722B560BBD}"/>
+    <hyperlink ref="D256" r:id="rId87" xr:uid="{CA38894F-DEBE-44BF-8E42-98698D4A217B}"/>
+    <hyperlink ref="D257" r:id="rId88" xr:uid="{AA795225-7002-419F-B1C7-7962BA75DE0B}"/>
+    <hyperlink ref="D258" r:id="rId89" xr:uid="{B7C79578-7A07-483C-B69B-9E3BB7EB0E62}"/>
+    <hyperlink ref="D259" r:id="rId90" xr:uid="{B5159E8E-027D-4111-9FF4-2739042272D7}"/>
+    <hyperlink ref="D120" r:id="rId91" xr:uid="{B144E9F9-177A-49B9-ADB2-1E6E9F3DBEEC}"/>
+    <hyperlink ref="D260" r:id="rId92" location="open" xr:uid="{9FCB12F2-A2DA-43A6-89C2-0992787526A9}"/>
+    <hyperlink ref="D261" r:id="rId93" location="open" xr:uid="{A6458447-13AF-48AC-AE5C-F1C2F7B8F4C8}"/>
+    <hyperlink ref="D262" r:id="rId94" location="open" xr:uid="{EFA06985-E957-4DD4-ACAF-1388B93E195B}"/>
+    <hyperlink ref="D263" r:id="rId95" xr:uid="{A952D8DC-782B-4F9C-AF45-69A9815771AE}"/>
+    <hyperlink ref="D264" r:id="rId96" xr:uid="{23E35058-445B-4191-B929-3B56F726141E}"/>
+    <hyperlink ref="D265" r:id="rId97" xr:uid="{AD8758F9-04D3-4883-9E4A-D1C8CC7C23B5}"/>
+    <hyperlink ref="D266" r:id="rId98" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F108" xr:uid="{780393A6-872D-4C9A-B457-F3A2CE0DDADC}"/>
+    <hyperlink ref="D267" r:id="rId99" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F60749" xr:uid="{95D09B43-CAE9-4F7B-BCCB-84D17CA2A024}"/>
+    <hyperlink ref="D219" r:id="rId100" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13421" xr:uid="{AB9E6CAA-D878-4473-A4F0-9680647CB923}"/>
+    <hyperlink ref="D268" r:id="rId101" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18841" xr:uid="{CCFD9383-8319-4E05-B23B-A865B1964E24}"/>
+    <hyperlink ref="D269" r:id="rId102" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12632" xr:uid="{C0AD5A66-AB0C-4F12-9460-0B5623965176}"/>
+    <hyperlink ref="D270" r:id="rId103" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F51100" xr:uid="{5D39B548-AE3D-405B-BF4A-631C9B976814}"/>
+    <hyperlink ref="D271" r:id="rId104" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58047" xr:uid="{93DCEAB0-852A-4222-871A-C3C7B463DF7F}"/>
+    <hyperlink ref="D272" r:id="rId105" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58046" xr:uid="{4C9315D0-123B-43D7-A785-514B294E4D38}"/>
+    <hyperlink ref="D273" r:id="rId106" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58045" xr:uid="{B77DAE19-4F0B-4081-83C2-4DE762FC89CC}"/>
+    <hyperlink ref="D274" r:id="rId107" xr:uid="{9AE771CB-CBE7-4359-8EFD-A66507E66134}"/>
+    <hyperlink ref="D11" r:id="rId108" xr:uid="{D62DA67A-A455-46B4-9B0D-6CFC8E90F7A4}"/>
+    <hyperlink ref="D12" r:id="rId109" xr:uid="{DA7BB2C4-C4B8-4EE0-B4BD-F52AEFEEEFB2}"/>
+    <hyperlink ref="D14" r:id="rId110" xr:uid="{1198F39F-DA97-4C44-A6CD-97B15CE506D4}"/>
+    <hyperlink ref="D13" r:id="rId111" xr:uid="{06363EF9-0975-4ED2-83C2-6FE7615672CF}"/>
+    <hyperlink ref="D5" r:id="rId112" xr:uid="{C98071AD-A5F6-4016-9BB3-E7A1AC6AA344}"/>
+    <hyperlink ref="D275" r:id="rId113" xr:uid="{C93A4DDC-45E0-4E26-A376-1D3331725FA3}"/>
+    <hyperlink ref="D276" r:id="rId114" xr:uid="{30791FDC-E0CC-48A6-BAD5-9F2A8BEA028B}"/>
+    <hyperlink ref="D277" r:id="rId115" xr:uid="{EDDF6B3B-A579-4882-9BBA-939A510DF1FD}"/>
+    <hyperlink ref="D278" r:id="rId116" xr:uid="{30B023E8-7CF3-440D-935D-706C2C9A6499}"/>
+    <hyperlink ref="D279" r:id="rId117" xr:uid="{A206150F-03AD-4D7C-B827-D7E4237460AD}"/>
+    <hyperlink ref="D280" r:id="rId118" xr:uid="{2B20E806-5D8A-45A1-900C-9B9289AB5735}"/>
+    <hyperlink ref="D281" r:id="rId119" xr:uid="{A70000A4-93C9-46C1-A681-55B6423CB308}"/>
+    <hyperlink ref="D282" r:id="rId120" xr:uid="{14E783E9-86EF-4181-9604-559D6EC16830}"/>
+    <hyperlink ref="D283" r:id="rId121" xr:uid="{FB85E98D-25DF-4217-8470-AACCAB67F0A3}"/>
+    <hyperlink ref="D284" r:id="rId122" xr:uid="{7376E014-33A7-4006-983B-A6E1AB8C68FC}"/>
+    <hyperlink ref="D285" r:id="rId123" xr:uid="{39647191-A216-4B19-B7C7-709C32E30C49}"/>
+    <hyperlink ref="D286" r:id="rId124" xr:uid="{442155D0-96CB-4531-9563-F37EE2CBD674}"/>
+    <hyperlink ref="D288" r:id="rId125" xr:uid="{5060F019-B9BA-453A-89F2-143F0FE36061}"/>
+    <hyperlink ref="D125" r:id="rId126" xr:uid="{0B6B7DAD-0927-476C-BAD8-FA90CB541251}"/>
+    <hyperlink ref="D124" r:id="rId127" xr:uid="{B6015264-BE48-4696-B76A-EDC6C92A6E27}"/>
+    <hyperlink ref="D128" r:id="rId128" xr:uid="{D79F4332-BB27-49C6-BDD2-7CEEB88B1524}"/>
+    <hyperlink ref="D126" r:id="rId129" xr:uid="{C89FB0F5-1105-4A68-8645-39A7A7D3850A}"/>
+    <hyperlink ref="D127" r:id="rId130" xr:uid="{0933C3A2-1163-4160-9778-94B9815CDE06}"/>
+    <hyperlink ref="D129" r:id="rId131" xr:uid="{859F256D-CDB1-473F-9B2C-26838E594BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId132"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/shows.xlsx
+++ b/data/shows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11879621be2b099b/BEN'S SOFTWARE/Documents/Python Projects/Ben's Python Computer Software/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686A753B-34A5-4121-9494-E4C09F3780EE}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E54BBEF-E829-4054-B3D5-55E1C3AD9814}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
+    <workbookView xWindow="2715" yWindow="2010" windowWidth="23640" windowHeight="12885" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
   </bookViews>
   <sheets>
     <sheet name="shows" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="508">
   <si>
     <t>type</t>
   </si>
@@ -77,15 +77,6 @@
     <t>https://youtu.be/ctyzvJLoid0</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>ABC News</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/31c6d6a6-8c31-4a91-a2f7-13ffd23a1083</t>
-  </si>
-  <si>
     <t>After Dark</t>
   </si>
   <si>
@@ -128,30 +119,6 @@
     <t>disney</t>
   </si>
   <si>
-    <t>Playtime Channel</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f0755e9b-6291-40bf-87c8-16cbe160cbbc</t>
-  </si>
-  <si>
-    <t>Real Life</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/a47235bd-fc2d-408a-84bf-e2f6c650f7e4</t>
-  </si>
-  <si>
-    <t>Throwbacks</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/b7554f62-d154-4a78-8ce9-91f7f2d59e94</t>
-  </si>
-  <si>
-    <t>Heros</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/741b5fda-91e0-4e6e-811d-fa9c9d0b326b</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
@@ -170,81 +137,36 @@
     <t>Spider-Man 1</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/0043a9c8-7e34-44e0-8128-e9419ae58868</t>
-  </si>
-  <si>
     <t>Spider-Man 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/25ec8dd6-e574-45fa-9a62-97396cdfaf68</t>
-  </si>
-  <si>
     <t>Spider-Man 3</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/5faa8ff9-91f6-4130-8357-afbe087cb8a4</t>
-  </si>
-  <si>
-    <t>The Amazing Spider-Man</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f43ffe63-2c96-4b6c-8fae-84d0d22d6466</t>
-  </si>
-  <si>
-    <t>The Amazing Spider-Man 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/c21c733a-18f4-4cdc-b1e8-1ff6b996c0a3</t>
-  </si>
-  <si>
     <t>Spider-Man: Homecoming</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/5b2b999a-045e-4d89-af52-390c257178db</t>
-  </si>
-  <si>
     <t>Spider-Man: Far From Home</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/2ca3cca0-bd2b-4934-93c0-c03d27fb249e</t>
-  </si>
-  <si>
     <t>Deadpool 1</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/17854bdb-0121-4327-80a0-699fdecd1aaa</t>
-  </si>
-  <si>
     <t>Deadpool 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/bdcd5a83-ad6e-428f-8c34-63a9cf695048</t>
-  </si>
-  <si>
     <t>Deadpool 3</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/120ae1e6-2240-4924-a4ce-f8de6e28b0b1</t>
-  </si>
-  <si>
     <t>X-Men</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/962f2f09-4468-4fb1-aef7-5b38e1f019db</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/032e7431-88c7-4ff6-a3f3-eb9f554e95c7</t>
-  </si>
-  <si>
     <t>X-Men: The Last Stand</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/e0f6bbed-cea5-41c1-b787-478f21255898</t>
-  </si>
-  <si>
     <t>Batman Begins</t>
   </si>
   <si>
@@ -260,39 +182,21 @@
     <t>The Avengers</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/3a5596d6-5133-4a8e-8d21-00e1531a4e0f</t>
-  </si>
-  <si>
     <t>Avengers: Age of Ultron</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/39740da6-d484-471b-8dd7-a70c6151d705</t>
-  </si>
-  <si>
     <t>Avengers: Infinity War</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/9a136e06-852a-41bf-b71d-fa061cb43225</t>
-  </si>
-  <si>
     <t>Avengers: Endgame</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/b39aa962-be56-4b09-a536-98617031717f</t>
-  </si>
-  <si>
     <t>Iron Man</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/3ac839c4-864b-41ed-ad98-043d6b4ac564</t>
-  </si>
-  <si>
     <t>Iron Man 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/e631253b-f3a7-49e4-a484-8aa538ba491f</t>
-  </si>
-  <si>
     <t>Iron Man 3</t>
   </si>
   <si>
@@ -482,12 +386,6 @@
     <t>anime</t>
   </si>
   <si>
-    <t>Dragon Ball Super Broly</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/dea31115-06f7-4a02-ab60-c00e36f1f378</t>
-  </si>
-  <si>
     <t>DBZ Abridged</t>
   </si>
   <si>
@@ -587,75 +485,36 @@
     <t>https://play.max.com/video/watch/388607c1-85cf-4feb-872d-087d0f26d9fd/f2ef861f-ea19-422d-b29e-cbc8624b8cd2</t>
   </si>
   <si>
-    <t>Narnia 1</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/6b59eb41-8660-4d93-bc42-9521bebb47a3</t>
-  </si>
-  <si>
-    <t>Narnia 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/cfd042fc-db6e-43b6-b1b8-588624349f92</t>
-  </si>
-  <si>
     <t>star wars</t>
   </si>
   <si>
     <t>Star Wars: Episode 1</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/e0a9fee4-2959-4077-ad8c-8fab4fd6e4d1</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/39cbdf17-1bbe-4de2-b4a4-8e342875c2c6</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 3</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/eb1e2c5f-69bf-4240-a61f-7ffc4e0311b3</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 4</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/9a280e53-fcc0-4e17-a02c-b1f40913eb0b</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 5</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/0f5c5223-f4f6-46ef-ba8a-69cb0e17d8d3</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 6</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/4b6e7cda-daa5-4f2d-9b61-35bbe562c69c</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 7</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/2854a94d-3702-40bd-97a4-12d55a809188</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 8</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/50c1aff5-3051-4839-9ebf-e332c635e216</t>
-  </si>
-  <si>
     <t>Star Wars: Episode 9</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/43f9c275-e7e8-4ab3-802d-00d06a8ad841</t>
-  </si>
-  <si>
     <t>music</t>
   </si>
   <si>
@@ -737,27 +596,12 @@
     <t>https://www.netflix.com/watch/70136344?trackId=14188376</t>
   </si>
   <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/34ebf58e-5a2a-4efa-8e4d-fb16039a3051</t>
-  </si>
-  <si>
     <t>Dragon Ball Super</t>
   </si>
   <si>
     <t>Yu-Gi-Oh</t>
   </si>
   <si>
-    <t>https://www.hulu.com/watch/1bc9d2c0-f71f-4f77-a28a-efc2abeced82</t>
-  </si>
-  <si>
-    <t>DigiMon</t>
-  </si>
-  <si>
-    <t>https://www.hulu.com/watch/aa9603ec-3688-4e02-b461-1fa4f407fbe9</t>
-  </si>
-  <si>
     <t>Family Guy</t>
   </si>
   <si>
@@ -782,9 +626,6 @@
     <t>American Dad</t>
   </si>
   <si>
-    <t>https://www.hulu.com/watch/8b927330-f55e-461d-b067-6e401f20c526</t>
-  </si>
-  <si>
     <t>iCarly</t>
   </si>
   <si>
@@ -815,12 +656,6 @@
     <t>https://www.paramountplus.com/shows/video/12t8vYXTqn761xkHQ_Sgt5LF2c9qQj9_/</t>
   </si>
   <si>
-    <t>Your Friendly Neighborhood Spiderman</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-b1417e49-48ad-4827-bfd6-94580ecbecd7</t>
-  </si>
-  <si>
     <t>point of view</t>
   </si>
   <si>
@@ -911,12 +746,6 @@
     <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19833</t>
   </si>
   <si>
-    <t>Sausage Party</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-b43bac40-9e9f-42d8-8754-aef7c9729430</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
@@ -935,90 +764,21 @@
     <t>Home Alone</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/45e4a68f-d9df-45f7-8e81-01b4ca5524e9</t>
-  </si>
-  <si>
     <t>Home Alone 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/86cd0f62-cec4-4426-9e35-9f8263a550a6</t>
-  </si>
-  <si>
-    <t>The Santa Clause</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/1216f88d-738f-4ead-b582-87dabb566373</t>
-  </si>
-  <si>
-    <t>The Santa Clause 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/13c48bb9-fa21-4c31-bba9-cb452536624f</t>
-  </si>
-  <si>
-    <t>The Santa Clause 3</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/7f3ad8b7-769d-4a74-aa9b-a1c87bb38a1f</t>
-  </si>
-  <si>
     <t>Dodge Ball</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/c264e6da-138c-4ebb-970c-785ad110d03c</t>
-  </si>
-  <si>
     <t>Disney</t>
   </si>
   <si>
-    <t xml:space="preserve">The Lion King </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/a3ae7371-39a5-4c0b-a1f2-29a70b372848</t>
-  </si>
-  <si>
-    <t>The Lion King 1.5</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/1f2f6001-2b4a-43e2-b331-f73ec5cc115e</t>
-  </si>
-  <si>
-    <t>The Lion King 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/5cf933b8-ae87-486b-983c-e25eca65bdb0</t>
-  </si>
-  <si>
     <t>The Little Mermaid</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/f7643452-fe64-4b05-8f09-c8bea9b2dd60</t>
-  </si>
-  <si>
-    <t>The Little Mermaid 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/38e87f4a-4b23-438f-857a-60459ab3374b</t>
-  </si>
-  <si>
-    <t>The Little Mermaid: Ariel's Beginning</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/88d77ded-caef-4b86-9209-0967f4cb465d</t>
-  </si>
-  <si>
     <t>Aladdin</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/bfad6284-a0aa-4ae1-8469-dc1653121dbb</t>
-  </si>
-  <si>
-    <t>Aladdin 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/16c910f4-2bc0-43e7-98dc-0e4b10550478</t>
-  </si>
-  <si>
     <t>Pokemon Journeys</t>
   </si>
   <si>
@@ -1055,165 +815,36 @@
     <t>https://www.netflix.com/watch/81060174</t>
   </si>
   <si>
-    <t>Beauty And The Beast</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/97babebc-7013-455a-b377-aa3d7a6e79c1</t>
-  </si>
-  <si>
     <t>Pixar</t>
   </si>
   <si>
-    <t>Finding Nemo</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/37b62808-2368-4688-9410-2dcf7461e258</t>
-  </si>
-  <si>
-    <t>Finding Dory</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/1898d521-c10f-46ca-b253-432a9eb5416f</t>
-  </si>
-  <si>
     <t>Toy Story</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/f6174ebf-cb92-453c-a52b-62bb3576e402</t>
-  </si>
-  <si>
     <t>Toy Story 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/55bb8618-baac-449e-9f63-f402f41371a2</t>
-  </si>
-  <si>
     <t>Toy Story 3</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/95e7b2ce-5f45-4923-976d-b7e9968a7357</t>
-  </si>
-  <si>
     <t>Toy Story 4</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/97d822a3-7dad-4d85-8350-ce4f8642511e</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/9f16a71b-8f93-455e-8d40-ae72d3dde6f7</t>
-  </si>
-  <si>
     <t>Lilo And Stitch</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/e291d4ea-cd86-4eb2-9f39-20d2b75165ee</t>
-  </si>
-  <si>
-    <t>Lilo And Stitch 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/75793e68-892b-4c84-b095-43d6de2835ef</t>
-  </si>
-  <si>
     <t>Cars</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/9c1b0ec2-2e4e-4717-89fb-bdf3a45523df</t>
-  </si>
-  <si>
     <t>Cars 2</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/fe92916d-0f0e-47ad-ad34-5931e59b42ea</t>
-  </si>
-  <si>
-    <t>Cars 3</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/610e18a4-d8d8-43b5-8051-672655e715f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 Dalmatians </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/8eed72cc-3c4a-41cf-8e98-44a6b7f8f8d3</t>
-  </si>
-  <si>
-    <t>101 Dalmatians 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/6d030186-6960-4cdf-8fe1-a4f04685fc7f</t>
-  </si>
-  <si>
-    <t>Alice In Wonderland</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/7ccabaf6-d01a-4163-a613-862f2c4f1446</t>
-  </si>
-  <si>
-    <t>Snow White</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f51f7e6c-2d9a-443c-9831-f3cc22e822b4</t>
-  </si>
-  <si>
-    <t>Bambi</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/c5350c37-0c8f-4094-8e63-72bfef0a0b08</t>
-  </si>
-  <si>
-    <t>Bambi 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/10615472-1eb1-4566-ad47-162f8a501c27</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/92d66793-7198-45de-bfb6-84915256d855</t>
-  </si>
-  <si>
-    <t>Lady And The Tramp</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f8a68a49-f7c3-417d-baed-1ff7c7b862de</t>
-  </si>
-  <si>
     <t>Captain America 2011</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/8e68c43a-117c-4f4d-b217-0db106a1a614</t>
-  </si>
-  <si>
     <t>Captain America 2014</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/ef333a5c-b855-4d3e-a7d9-d9e142b6dc7d</t>
-  </si>
-  <si>
-    <t>Captain America Civil War</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/2fe7e94e-8b24-4a75-8fc8-969c2a16959e</t>
-  </si>
-  <si>
-    <t>Fantastic 4</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/d6592baa-0dc6-4549-a0cb-3b93a3b0e260</t>
-  </si>
-  <si>
-    <t>Fantastic 4: Silver Surfer</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/06810fd3-a12e-4185-829b-36b3c814ce97</t>
-  </si>
-  <si>
     <t>Zoey 101</t>
   </si>
   <si>
@@ -1253,45 +884,6 @@
     <t>The Simpsons Movie</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/21cdf36d-d3ba-49f6-9dc6-b9d4e2a8be85</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 1994</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/c7ef3fbd-0f65-4ef5-bff4-d1ab396b79a9</t>
-  </si>
-  <si>
-    <t>Spiderman Unlimited</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-c9317b3b-c319-4c71-af41-d152a21e0188</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 2017</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/7ead9564-9d09-4139-913a-84c32e4d467e</t>
-  </si>
-  <si>
-    <t>Spiderman Cartoon 1981</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-40b68b03-3047-4233-bec1-a304efdb9bfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiderman Ultimate </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/9300b1bc-e876-4228-8d98-85e7bdf82f0c</t>
-  </si>
-  <si>
-    <t>Curious George</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/36c3a72f-c33b-4bbd-abcc-d68aa6d9d747</t>
-  </si>
-  <si>
     <t>A Christmas Story</t>
   </si>
   <si>
@@ -1445,42 +1037,15 @@
     <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50053</t>
   </si>
   <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/ab7c4e29-04f1-46dd-931a-d43be1ce0f8c</t>
-  </si>
-  <si>
-    <t>Up!</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f820c0a3-e646-4b75-8dd1-87f6d776c32b</t>
-  </si>
-  <si>
     <t>Monsters, Inc</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/3c90b85f-ba5e-4351-be87-e625d5706952</t>
-  </si>
-  <si>
     <t>Monsters University</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/9b76e5cf-4005-4f0b-ae54-e65f3a6ccb61</t>
-  </si>
-  <si>
     <t>The Incredibles</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/850b6e92-07ea-4211-b3c3-cbbf1de045fa</t>
-  </si>
-  <si>
-    <t>The Incredibles 2</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/9da2c0fb-a380-4180-b67f-006fbaaa89ab</t>
-  </si>
-  <si>
     <t>Jimmy Neutron</t>
   </si>
   <si>
@@ -1514,21 +1079,9 @@
     <t>Honey I Shrunk The Kids</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/d3bd4647-6ecf-4aac-a4a5-6a9e7aa84580</t>
-  </si>
-  <si>
     <t>Honey I Blew Up The Kid</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/b009ca82-33e8-4122-886f-cc6687a097fd</t>
-  </si>
-  <si>
-    <t>Honey We Shrunk Ourselves</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/a212f2c3-a4a7-49c8-af82-c3128941adba</t>
-  </si>
-  <si>
     <t>Samurai Jack</t>
   </si>
   <si>
@@ -1547,15 +1100,6 @@
     <t>https://www.netflix.com/watch/70252059?trackId=268410292</t>
   </si>
   <si>
-    <t xml:space="preserve">Teen Titans Go </t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/32db6f40-f526-4044-b87f-97a763c6a094</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f1950b3f-9738-4567-b036-edd27c7eb1cd</t>
-  </si>
-  <si>
     <t>Rick and Morty</t>
   </si>
   <si>
@@ -1733,72 +1277,15 @@
     <t>Mickey Mouse Clubhouse</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/d17b8bb0-2d17-4002-afbf-71e122b4157d</t>
-  </si>
-  <si>
     <t>reality</t>
   </si>
   <si>
-    <t>Love Island</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/59f1ed83-a68a-4e8a-8b08-09342ddfc13a</t>
-  </si>
-  <si>
     <t>Are You The One?</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/15178ac0-9258-4451-acb8-bcb13aa432d5</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/d5c270d3-e31c-45c0-9f25-92fd2571f6a8</t>
-  </si>
-  <si>
-    <t>Lizzie Mcguire</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/browse/entity-a5525471-bb5a-4367-b7a3-52a69dbfbad8</t>
-  </si>
-  <si>
-    <t>Hanna Montana</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/a8155a8b-d618-4f88-a64a-34bc585c79d7</t>
-  </si>
-  <si>
-    <t>The Suite Life of Zack and Cody</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/c623aee3-4da1-4354-909d-3763cc9a2b51</t>
-  </si>
-  <si>
-    <t>Wizards Of Waverly Place</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/475abeb0-1d6d-4958-8303-ae14b1c57f27</t>
-  </si>
-  <si>
-    <t>An Extremely Goofy Movie</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/f12466f8-6871-43ba-9463-b5f352f4d6ca</t>
-  </si>
-  <si>
-    <t>A Goofy Movie</t>
-  </si>
-  <si>
-    <t>https://www.disneyplus.com/play/dc9c2716-f06a-498d-b689-66f6bf70480d</t>
-  </si>
-  <si>
     <t>Bob's Burgers</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/play/ed5bdafa-0eee-4f10-8675-5cd8afc7780f</t>
-  </si>
-  <si>
     <t>Naked and Afraid Of Love</t>
   </si>
   <si>
@@ -1916,7 +1403,163 @@
     <t>https://www.paramountplus.com/shows/video/6h4uLBAxM9HLSaj_Mj0HVtta7hy9PW4w/</t>
   </si>
   <si>
-    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19539</t>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1121</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F98838</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1122</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F306</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F303</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F307</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61940</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F171</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F892</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28352</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F157</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F139</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F332</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F304</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F165</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F40491</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55024</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14680</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F198</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F308</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F56</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52272</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1296</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F27423</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F337</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55306</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F199</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F333</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55258</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52254</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12636</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F684</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14742</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20983</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52281</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F15156</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55216</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F127</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F53264</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20985</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1123</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55611</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F336</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F305</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F56982</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F334</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55260</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55406</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14741</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/provider/tv.plex.provider.discover/details?key=%2Flibrary%2Fmetadata%2F5d9c081dba6eb9001fb9c35c</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F7615</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F17604</t>
+  </si>
+  <si>
+    <t>https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F171664</t>
   </si>
 </sst>
 </file>
@@ -2472,10 +2115,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}" name="Table4" displayName="Table4" ref="A1:D299" totalsRowShown="0">
-  <autoFilter ref="A1:D299" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D287">
-    <sortCondition ref="C1:C287"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}" name="Table4" displayName="Table4" ref="A1:D238" totalsRowShown="0">
+  <autoFilter ref="A1:D238" xr:uid="{8750FBA8-72C1-4A95-A9F0-60B8A656684F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D238">
+    <sortCondition ref="D1:D238"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DDF01564-918D-44FC-B1E2-44FD1D2C11B3}" name="type"/>
@@ -2804,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A568168-7DDB-4797-892A-AB0658C0EAE1}">
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,2407 +2477,2407 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>367</v>
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>369</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
+        <v>189</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" t="s">
-        <v>419</v>
+        <v>429</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>583</v>
+        <v>396</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>584</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>324</v>
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>326</v>
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>371</v>
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>422</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>581</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>582</v>
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>566</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>569</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>570</v>
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>569</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
+        <v>327</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
+        <v>402</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
+        <v>319</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>377</v>
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>451</v>
+        <v>325</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>454</v>
+        <v>232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>284</v>
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>400</v>
-      </c>
-      <c r="D33" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>336</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
+        <v>323</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>447</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>585</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>586</v>
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>354</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>355</v>
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>382</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>383</v>
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>385</v>
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>362</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>363</v>
+        <v>446</v>
+      </c>
+      <c r="D48" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>500</v>
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>416</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>417</v>
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>530</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>531</v>
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
+        <v>331</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
-      </c>
-      <c r="D62" t="s">
-        <v>421</v>
+        <v>315</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
-      </c>
-      <c r="D63" t="s">
-        <v>239</v>
+        <v>404</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>309</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>554</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>555</v>
+        <v>311</v>
+      </c>
+      <c r="D66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>483</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>484</v>
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>566</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>591</v>
+        <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>592</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
-      </c>
-      <c r="D71" t="s">
-        <v>429</v>
+        <v>410</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>595</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" t="s">
-        <v>225</v>
+        <v>406</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>396</v>
-      </c>
-      <c r="D74" t="s">
-        <v>397</v>
+        <v>451</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>624</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>389</v>
+        <v>303</v>
+      </c>
+      <c r="D77" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" t="s">
-        <v>138</v>
+        <v>317</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>345</v>
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>343</v>
+        <v>284</v>
+      </c>
+      <c r="D83" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>460</v>
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
+        <v>436</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87" t="s">
-        <v>624</v>
+        <v>434</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>575</v>
+        <v>435</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>576</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
+        <v>441</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>299</v>
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>301</v>
+        <v>171</v>
+      </c>
+      <c r="D94" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>494</v>
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>491</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>492</v>
+        <v>169</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>495</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>496</v>
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>399</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>597</v>
+        <v>45</v>
+      </c>
+      <c r="D99" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" t="s">
-        <v>245</v>
+        <v>348</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" t="s">
-        <v>84</v>
+        <v>416</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D104" t="s">
-        <v>154</v>
+        <v>368</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
-      </c>
-      <c r="D105" t="s">
-        <v>156</v>
+        <v>356</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>482</v>
+        <v>137</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
-      </c>
-      <c r="D108" t="s">
-        <v>109</v>
+        <v>362</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" t="s">
-        <v>113</v>
+        <v>350</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>571</v>
+        <v>374</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>572</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
-      </c>
-      <c r="D115" t="s">
-        <v>219</v>
+        <v>370</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>529</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="D117" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>573</v>
+        <v>394</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>574</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>515</v>
+        <v>143</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" t="s">
-        <v>172</v>
+        <v>390</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>433</v>
-      </c>
-      <c r="D122" t="s">
-        <v>434</v>
+        <v>360</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="C123" t="s">
-        <v>437</v>
-      </c>
-      <c r="D123" t="s">
-        <v>438</v>
+        <v>354</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>435</v>
-      </c>
-      <c r="D124" t="s">
-        <v>436</v>
+        <v>366</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
-      </c>
-      <c r="D125" t="s">
-        <v>174</v>
+        <v>272</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>566</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>567</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>568</v>
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>566</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>593</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>594</v>
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>424</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>263</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
-        <v>564</v>
+        <v>154</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>269</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>473</v>
+        <v>281</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>548</v>
+        <v>156</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>566</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>587</v>
+        <v>36</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>588</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
-      </c>
-      <c r="D139" t="s">
-        <v>184</v>
+        <v>48</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
-      </c>
-      <c r="D140" t="s">
-        <v>186</v>
+        <v>151</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>489</v>
+        <v>47</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>516</v>
+        <v>51</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" t="s">
-        <v>20</v>
+        <v>333</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>544</v>
+        <v>158</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="C145" t="s">
-        <v>552</v>
+        <v>241</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>233</v>
-      </c>
-      <c r="D146" t="s">
-        <v>234</v>
+        <v>155</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
-      </c>
-      <c r="D147" t="s">
-        <v>294</v>
+        <v>157</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="C148" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="C149" t="s">
-        <v>277</v>
-      </c>
-      <c r="D149" t="s">
-        <v>278</v>
+        <v>35</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
-      </c>
-      <c r="D151" t="s">
-        <v>328</v>
+        <v>53</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C152" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>445</v>
-      </c>
-      <c r="D153" t="s">
-        <v>446</v>
+        <v>242</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C154" t="s">
-        <v>431</v>
+        <v>267</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>599</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C155" t="s">
-        <v>443</v>
-      </c>
-      <c r="D155" t="s">
-        <v>444</v>
+        <v>262</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="C157" t="s">
-        <v>449</v>
+        <v>263</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="C158" t="s">
-        <v>469</v>
+        <v>49</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>33</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="C160" t="s">
-        <v>506</v>
+        <v>334</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="C161" t="s">
-        <v>510</v>
+        <v>265</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C162" t="s">
-        <v>86</v>
-      </c>
-      <c r="D162" t="s">
-        <v>87</v>
+        <v>347</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
-        <v>96</v>
-      </c>
-      <c r="D163" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>88</v>
-      </c>
-      <c r="D164" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
-      </c>
-      <c r="D165" t="s">
-        <v>91</v>
+        <v>246</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>92</v>
-      </c>
-      <c r="D166" t="s">
-        <v>93</v>
+        <v>243</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>94</v>
-      </c>
-      <c r="D167" t="s">
-        <v>95</v>
+        <v>412</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>626</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="C169" t="s">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>541</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>538</v>
+        <v>42</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="C171" t="s">
-        <v>534</v>
+        <v>264</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="C173" t="s">
-        <v>497</v>
+        <v>152</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>498</v>
@@ -5242,1925 +4885,1051 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>291</v>
-      </c>
-      <c r="D174" t="s">
-        <v>292</v>
+        <v>415</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B175" t="s">
-        <v>556</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
-        <v>556</v>
+        <v>268</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>556</v>
+        <v>259</v>
       </c>
       <c r="C176" t="s">
-        <v>558</v>
+        <v>260</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="C177" t="s">
-        <v>560</v>
+        <v>245</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>556</v>
+        <v>259</v>
       </c>
       <c r="C178" t="s">
-        <v>562</v>
+        <v>266</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C179" t="s">
-        <v>524</v>
+        <v>187</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>426</v>
-      </c>
-      <c r="D180" t="s">
-        <v>427</v>
+        <v>195</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>373</v>
+        <v>97</v>
+      </c>
+      <c r="D181" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>625</v>
+        <v>99</v>
+      </c>
+      <c r="D182" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>465</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>466</v>
+        <v>414</v>
+      </c>
+      <c r="D183" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
+        <v>352</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
-      </c>
-      <c r="D185" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D186" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="D187" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>412</v>
+        <v>198</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>413</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>406</v>
+        <v>197</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>410</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>411</v>
+        <v>273</v>
+      </c>
+      <c r="D190" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C191" t="s">
-        <v>414</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>415</v>
+        <v>123</v>
+      </c>
+      <c r="D191" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>408</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>409</v>
+        <v>277</v>
+      </c>
+      <c r="D192" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C193" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="D193" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C194" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D194" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C195" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="D195" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s">
-        <v>12</v>
+        <v>418</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B197" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="C197" t="s">
-        <v>270</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
+      </c>
+      <c r="D197" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B198" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C198" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C199" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="D199" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C200" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="D200" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="D201" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D202" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="C203" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D203" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B204" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C204" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D204" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
-      </c>
-      <c r="D205" t="s">
-        <v>203</v>
+        <v>422</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B206" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C206" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D206" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C207" t="s">
-        <v>295</v>
-      </c>
-      <c r="D207" t="s">
-        <v>296</v>
+        <v>249</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="D208" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>503</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>504</v>
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>124</v>
-      </c>
-      <c r="D211" t="s">
-        <v>125</v>
+        <v>384</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>122</v>
-      </c>
-      <c r="D212" t="s">
-        <v>123</v>
+        <v>388</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C213" t="s">
-        <v>126</v>
-      </c>
-      <c r="D213" t="s">
-        <v>127</v>
+        <v>386</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C214" t="s">
-        <v>49</v>
-      </c>
-      <c r="D214" t="s">
-        <v>50</v>
+        <v>342</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
-      </c>
-      <c r="D215" t="s">
-        <v>52</v>
+        <v>196</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="D216" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>508</v>
+        <v>190</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>71</v>
-      </c>
-      <c r="D218" t="s">
-        <v>72</v>
+        <v>380</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>532</v>
+        <v>338</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>129</v>
-      </c>
-      <c r="D220" t="s">
-        <v>130</v>
+        <v>336</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B221" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>133</v>
-      </c>
-      <c r="D221" t="s">
-        <v>134</v>
+        <v>344</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>143</v>
-      </c>
-      <c r="D222" t="s">
-        <v>144</v>
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>521</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>439</v>
-      </c>
-      <c r="D224" t="s">
-        <v>440</v>
+        <v>382</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>542</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>543</v>
+        <v>192</v>
+      </c>
+      <c r="D225" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B226" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>177</v>
-      </c>
-      <c r="D226" t="s">
-        <v>178</v>
+        <v>378</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B227" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D227" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="C229" t="s">
-        <v>477</v>
+        <v>209</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>478</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>341</v>
+        <v>115</v>
       </c>
       <c r="C230" t="s">
-        <v>479</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>480</v>
+        <v>116</v>
+      </c>
+      <c r="D230" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="C231" t="s">
-        <v>441</v>
-      </c>
-      <c r="D231" t="s">
-        <v>442</v>
+        <v>207</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>522</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>523</v>
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C233" t="s">
-        <v>114</v>
-      </c>
-      <c r="D233" t="s">
-        <v>115</v>
+        <v>211</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C234" t="s">
-        <v>116</v>
-      </c>
-      <c r="D234" t="s">
-        <v>117</v>
+        <v>217</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C235" t="s">
-        <v>118</v>
-      </c>
-      <c r="D235" t="s">
-        <v>119</v>
+        <v>215</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>314</v>
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="C238" t="s">
-        <v>315</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>41</v>
-      </c>
-      <c r="B239" t="s">
-        <v>310</v>
-      </c>
-      <c r="C239" t="s">
-        <v>317</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>41</v>
-      </c>
-      <c r="B240" t="s">
-        <v>310</v>
-      </c>
-      <c r="C240" t="s">
-        <v>319</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>41</v>
-      </c>
-      <c r="B241" t="s">
-        <v>310</v>
-      </c>
-      <c r="C241" t="s">
-        <v>321</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>41</v>
-      </c>
-      <c r="B242" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" t="s">
-        <v>461</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>41</v>
-      </c>
-      <c r="B243" t="s">
-        <v>98</v>
-      </c>
-      <c r="C243" t="s">
-        <v>98</v>
-      </c>
-      <c r="D243" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>41</v>
-      </c>
-      <c r="B244" t="s">
-        <v>98</v>
-      </c>
-      <c r="C244" t="s">
-        <v>100</v>
-      </c>
-      <c r="D244" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>41</v>
-      </c>
-      <c r="B245" t="s">
-        <v>98</v>
-      </c>
-      <c r="C245" t="s">
-        <v>104</v>
-      </c>
-      <c r="D245" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>41</v>
-      </c>
-      <c r="B246" t="s">
-        <v>98</v>
-      </c>
-      <c r="C246" t="s">
-        <v>102</v>
-      </c>
-      <c r="D246" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>41</v>
-      </c>
-      <c r="B247" t="s">
-        <v>114</v>
-      </c>
-      <c r="C247" t="s">
-        <v>120</v>
-      </c>
-      <c r="D247" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>41</v>
-      </c>
-      <c r="B248" t="s">
-        <v>38</v>
-      </c>
-      <c r="C248" t="s">
-        <v>536</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>41</v>
-      </c>
-      <c r="B249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C249" t="s">
-        <v>536</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>41</v>
-      </c>
-      <c r="B250" t="s">
-        <v>297</v>
-      </c>
-      <c r="C250" t="s">
-        <v>302</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>41</v>
-      </c>
-      <c r="B251" t="s">
-        <v>297</v>
-      </c>
-      <c r="C251" t="s">
-        <v>304</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>41</v>
-      </c>
-      <c r="B252" t="s">
-        <v>297</v>
-      </c>
-      <c r="C252" t="s">
-        <v>306</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>229</v>
-      </c>
-      <c r="B253" t="s">
-        <v>38</v>
-      </c>
-      <c r="C253" t="s">
-        <v>526</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>229</v>
-      </c>
-      <c r="B254" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" t="s">
-        <v>243</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>41</v>
-      </c>
-      <c r="B255" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" t="s">
-        <v>404</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>41</v>
-      </c>
-      <c r="B256" t="s">
-        <v>38</v>
-      </c>
-      <c r="C256" t="s">
-        <v>487</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>229</v>
-      </c>
-      <c r="B257" t="s">
-        <v>29</v>
-      </c>
-      <c r="C257" t="s">
-        <v>577</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>229</v>
-      </c>
-      <c r="B258" t="s">
-        <v>18</v>
-      </c>
-      <c r="C258" t="s">
-        <v>257</v>
-      </c>
-      <c r="D258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>229</v>
-      </c>
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C259" t="s">
-        <v>512</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>41</v>
-      </c>
-      <c r="B260" t="s">
-        <v>165</v>
-      </c>
-      <c r="C260" t="s">
-        <v>281</v>
-      </c>
-      <c r="D260" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>41</v>
-      </c>
-      <c r="B261" t="s">
-        <v>165</v>
-      </c>
-      <c r="C261" t="s">
-        <v>285</v>
-      </c>
-      <c r="D261" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>229</v>
-      </c>
-      <c r="B262" t="s">
-        <v>38</v>
-      </c>
-      <c r="C262" t="s">
-        <v>518</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>41</v>
-      </c>
-      <c r="B263" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" t="s">
-        <v>467</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>41</v>
-      </c>
-      <c r="B264" t="s">
-        <v>276</v>
-      </c>
-      <c r="C264" t="s">
-        <v>289</v>
-      </c>
-      <c r="D264" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" t="s">
-        <v>29</v>
-      </c>
-      <c r="C265" t="s">
-        <v>34</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>41</v>
-      </c>
-      <c r="B266" t="s">
-        <v>152</v>
-      </c>
-      <c r="C266" t="s">
-        <v>157</v>
-      </c>
-      <c r="D266" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>41</v>
-      </c>
-      <c r="B267" t="s">
-        <v>152</v>
-      </c>
-      <c r="C267" t="s">
-        <v>159</v>
-      </c>
-      <c r="D267" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>41</v>
-      </c>
-      <c r="B268" t="s">
-        <v>152</v>
-      </c>
-      <c r="C268" t="s">
-        <v>161</v>
-      </c>
-      <c r="D268" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>41</v>
-      </c>
-      <c r="B269" t="s">
-        <v>152</v>
-      </c>
-      <c r="C269" t="s">
-        <v>163</v>
-      </c>
-      <c r="D269" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>229</v>
-      </c>
-      <c r="B270" t="s">
-        <v>566</v>
-      </c>
-      <c r="C270" t="s">
-        <v>589</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>229</v>
-      </c>
-      <c r="B271" t="s">
-        <v>394</v>
-      </c>
-      <c r="C271" t="s">
-        <v>501</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>41</v>
-      </c>
-      <c r="B272" t="s">
-        <v>341</v>
-      </c>
-      <c r="C272" t="s">
-        <v>346</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>41</v>
-      </c>
-      <c r="B273" t="s">
-        <v>341</v>
-      </c>
-      <c r="C273" t="s">
-        <v>348</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>41</v>
-      </c>
-      <c r="B274" t="s">
-        <v>341</v>
-      </c>
-      <c r="C274" t="s">
-        <v>350</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>41</v>
-      </c>
-      <c r="B275" t="s">
-        <v>341</v>
-      </c>
-      <c r="C275" t="s">
-        <v>352</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>41</v>
-      </c>
-      <c r="B276" t="s">
-        <v>38</v>
-      </c>
-      <c r="C276" t="s">
-        <v>550</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>41</v>
-      </c>
-      <c r="B277" t="s">
-        <v>8</v>
-      </c>
-      <c r="C277" t="s">
-        <v>279</v>
-      </c>
-      <c r="D277" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>41</v>
-      </c>
-      <c r="B278" t="s">
-        <v>341</v>
-      </c>
-      <c r="C278" t="s">
-        <v>471</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>229</v>
-      </c>
-      <c r="B279" t="s">
-        <v>18</v>
-      </c>
-      <c r="C279" t="s">
-        <v>251</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>4</v>
-      </c>
-      <c r="B280" t="s">
-        <v>261</v>
-      </c>
-      <c r="C280" t="s">
-        <v>272</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>229</v>
-      </c>
-      <c r="B281" t="s">
-        <v>29</v>
-      </c>
-      <c r="C281" t="s">
-        <v>579</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>41</v>
-      </c>
-      <c r="B282" t="s">
-        <v>42</v>
-      </c>
-      <c r="C282" t="s">
-        <v>65</v>
-      </c>
-      <c r="D282" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>41</v>
-      </c>
-      <c r="B283" t="s">
-        <v>42</v>
-      </c>
-      <c r="C283" t="s">
-        <v>63</v>
-      </c>
-      <c r="D283" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>41</v>
-      </c>
-      <c r="B284" t="s">
-        <v>42</v>
-      </c>
-      <c r="C284" t="s">
-        <v>67</v>
-      </c>
-      <c r="D284" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>229</v>
-      </c>
-      <c r="B285" t="s">
-        <v>42</v>
-      </c>
-      <c r="C285" t="s">
-        <v>259</v>
-      </c>
-      <c r="D285" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>229</v>
-      </c>
-      <c r="B286" t="s">
-        <v>147</v>
-      </c>
-      <c r="C286" t="s">
-        <v>236</v>
-      </c>
-      <c r="D286" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>229</v>
-      </c>
-      <c r="B287" t="s">
-        <v>18</v>
-      </c>
-      <c r="C287" t="s">
-        <v>392</v>
-      </c>
-      <c r="D287" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>41</v>
-      </c>
-      <c r="B288" t="s">
-        <v>8</v>
-      </c>
-      <c r="C288" t="s">
-        <v>600</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>41</v>
-      </c>
-      <c r="B289" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" t="s">
-        <v>602</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>41</v>
-      </c>
-      <c r="B290" t="s">
-        <v>170</v>
-      </c>
-      <c r="C290" t="s">
-        <v>604</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>41</v>
-      </c>
-      <c r="B291" t="s">
-        <v>170</v>
-      </c>
-      <c r="C291" t="s">
-        <v>605</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>41</v>
-      </c>
-      <c r="B292" t="s">
-        <v>170</v>
-      </c>
-      <c r="C292" t="s">
-        <v>606</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>41</v>
-      </c>
-      <c r="B293" t="s">
-        <v>170</v>
-      </c>
-      <c r="C293" t="s">
-        <v>607</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>41</v>
-      </c>
-      <c r="B294" t="s">
-        <v>170</v>
-      </c>
-      <c r="C294" t="s">
-        <v>612</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>41</v>
-      </c>
-      <c r="B295" t="s">
-        <v>170</v>
-      </c>
-      <c r="C295" t="s">
-        <v>615</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>41</v>
-      </c>
-      <c r="B296" t="s">
-        <v>170</v>
-      </c>
-      <c r="C296" t="s">
-        <v>616</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>41</v>
-      </c>
-      <c r="B297" t="s">
-        <v>170</v>
-      </c>
-      <c r="C297" t="s">
-        <v>617</v>
-      </c>
-      <c r="D297" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>41</v>
-      </c>
-      <c r="B298" t="s">
-        <v>170</v>
-      </c>
-      <c r="C298" t="s">
-        <v>618</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>41</v>
-      </c>
-      <c r="B299" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" t="s">
-        <v>622</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>623</v>
+        <v>24</v>
+      </c>
+      <c r="D238" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457" xr:uid="{B222B584-5A02-443B-8FEF-66301958BAFF}"/>
-    <hyperlink ref="D157" r:id="rId2" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61373" xr:uid="{7DCA17E7-4DB0-4973-B3CB-2E7BF907F055}"/>
-    <hyperlink ref="D30" r:id="rId3" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50564" xr:uid="{B0473A44-24FB-416D-9CEA-B10C05B7C585}"/>
-    <hyperlink ref="D31" r:id="rId4" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62060" xr:uid="{F4527EAA-B8DB-4E4F-A33B-44ADE449C9CF}"/>
-    <hyperlink ref="D34" r:id="rId5" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13424" xr:uid="{7B636DA2-BAEB-4D25-9C75-4643A4943C7A}"/>
-    <hyperlink ref="D84" r:id="rId6" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20982" xr:uid="{15BD7191-5989-4112-8F21-33EB16E7159C}"/>
-    <hyperlink ref="D242" r:id="rId7" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18449" xr:uid="{CACC0E19-8034-4A0C-BDAB-7E08462E836F}"/>
-    <hyperlink ref="D129" r:id="rId8" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12631" xr:uid="{71B9C30E-B188-470B-9E3A-ACC2ABCA4AA7}"/>
-    <hyperlink ref="D183" r:id="rId9" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18445" xr:uid="{CD618DF5-385D-4421-9FBB-607E31CD83B0}"/>
-    <hyperlink ref="D263" r:id="rId10" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50053" xr:uid="{DE99DB3F-8EC7-4118-AE27-92DB5B300712}"/>
-    <hyperlink ref="D158" r:id="rId11" xr:uid="{D6472BB0-97AD-455C-9634-522A036BC7DA}"/>
-    <hyperlink ref="D278" r:id="rId12" xr:uid="{F649317B-2DF0-4CC0-86D1-4F2CFA216C54}"/>
-    <hyperlink ref="D135" r:id="rId13" xr:uid="{E5F96217-D4A5-4424-A60C-BC169E58130E}"/>
-    <hyperlink ref="D230" r:id="rId14" xr:uid="{0A2DEA23-45C1-44C7-B3F7-BA0511963436}"/>
-    <hyperlink ref="D106" r:id="rId15" xr:uid="{6EA09EB9-8513-4BD6-B897-3332399FF770}"/>
-    <hyperlink ref="D256" r:id="rId16" location="open" xr:uid="{D1B342EC-F093-45FF-9730-33AED68B5926}"/>
-    <hyperlink ref="D88" r:id="rId17" xr:uid="{2324F427-9CEA-4703-974E-73743528F7F2}"/>
-    <hyperlink ref="D67" r:id="rId18" xr:uid="{DE156B9A-7FF4-4935-9F77-45B0C8AD2EEA}"/>
-    <hyperlink ref="D96" r:id="rId19" xr:uid="{07DFD93B-BA75-4C4E-8750-7B48B409F5D1}"/>
-    <hyperlink ref="D97" r:id="rId20" xr:uid="{C51C9600-EFD1-4AFB-82E1-CD518CFAC201}"/>
-    <hyperlink ref="D134" r:id="rId21" xr:uid="{8CBFA309-3772-4DE8-8B8E-E35BB4368C1D}"/>
-    <hyperlink ref="D229" r:id="rId22" xr:uid="{6F963AB9-9CAC-4917-AA06-67E33BF30BD7}"/>
-    <hyperlink ref="D93" r:id="rId23" xr:uid="{F36074D8-92B4-41AE-87CF-844C3D876D9B}"/>
-    <hyperlink ref="D94" r:id="rId24" xr:uid="{25F815D5-CA2A-4ABD-A85E-48E8CCD03043}"/>
-    <hyperlink ref="D250" r:id="rId25" xr:uid="{7BEBB07E-3F8D-4FA4-97D1-2C42C63C34B6}"/>
-    <hyperlink ref="D251" r:id="rId26" xr:uid="{F1A68C74-9BBE-4F2C-95AF-710D6CB2AAF3}"/>
-    <hyperlink ref="D252" r:id="rId27" xr:uid="{F39AF291-8F14-4772-99C1-DED28DB50A2E}"/>
-    <hyperlink ref="D65" r:id="rId28" xr:uid="{4B6C0F07-26B8-4B44-BC67-F7231E6A4665}"/>
-    <hyperlink ref="D236" r:id="rId29" xr:uid="{67918D58-14FB-4F77-8321-AB4B66BA729E}"/>
-    <hyperlink ref="D237" r:id="rId30" xr:uid="{A5CD58C2-11C8-450D-9C2E-90D9E538DA15}"/>
-    <hyperlink ref="D238" r:id="rId31" xr:uid="{57BD0184-58BC-422B-A865-F810EC7D998E}"/>
-    <hyperlink ref="D239" r:id="rId32" xr:uid="{52E7527F-DFDA-451F-993B-1653832C5117}"/>
-    <hyperlink ref="D240" r:id="rId33" xr:uid="{78C026C7-97C3-4CA5-BEE9-454CE601C04D}"/>
-    <hyperlink ref="D241" r:id="rId34" xr:uid="{06447BE1-1380-42FD-A08B-A40DA0F9865E}"/>
-    <hyperlink ref="D13" r:id="rId35" xr:uid="{B286541F-B6B1-4882-A28A-112BA6548128}"/>
-    <hyperlink ref="D14" r:id="rId36" xr:uid="{4373F4BC-0CD8-4244-9272-1650CB56BFD1}"/>
-    <hyperlink ref="D29" r:id="rId37" xr:uid="{6F2D2AF6-DA06-4C05-A342-3B8E6759BA3C}"/>
-    <hyperlink ref="D83" r:id="rId38" xr:uid="{6FE6C17F-6133-422E-AF4E-DD9E668F21AF}"/>
-    <hyperlink ref="D82" r:id="rId39" xr:uid="{C3CF1A13-0459-4733-883B-6120D53EF2C8}"/>
-    <hyperlink ref="D272" r:id="rId40" xr:uid="{BFD6AFF8-7831-48A9-BA42-2E149BFF6522}"/>
-    <hyperlink ref="D273" r:id="rId41" xr:uid="{F64253FC-F54E-46EA-A000-74C90183A92E}"/>
-    <hyperlink ref="D274" r:id="rId42" xr:uid="{14450188-A9BC-4511-9958-CED81B39DE4A}"/>
-    <hyperlink ref="D275" r:id="rId43" xr:uid="{A649D737-648F-4141-BD16-9600BFA7851D}"/>
-    <hyperlink ref="D43" r:id="rId44" xr:uid="{20A34F67-C733-4EBB-B40E-8FB988DD953C}"/>
-    <hyperlink ref="D113" r:id="rId45" xr:uid="{F10693C7-5C36-4C19-8DF2-8095791A3AFB}"/>
-    <hyperlink ref="D114" r:id="rId46" xr:uid="{266C3A3F-3FF0-4C18-92BB-4DB275EE422D}"/>
-    <hyperlink ref="D47" r:id="rId47" xr:uid="{B0D73AB9-B7D5-4D06-BEF2-7B466DFC0E5B}"/>
-    <hyperlink ref="D48" r:id="rId48" xr:uid="{4FE494D9-8FB6-4C51-9A77-3E75550A031E}"/>
-    <hyperlink ref="D49" r:id="rId49" xr:uid="{14CD4869-66CC-4BE7-B75D-29DC643D5102}"/>
-    <hyperlink ref="D2" r:id="rId50" xr:uid="{382909BE-703F-4FC4-B61A-A2AD18C5919E}"/>
-    <hyperlink ref="D3" r:id="rId51" xr:uid="{1CEC053F-D88E-4832-8EA1-32D20DA3C309}"/>
-    <hyperlink ref="D15" r:id="rId52" xr:uid="{7918B852-1E8D-425D-9173-7A4EAC41CAA1}"/>
-    <hyperlink ref="D181" r:id="rId53" xr:uid="{0395E6A9-6653-4EB5-A911-062621440ECA}"/>
-    <hyperlink ref="D26" r:id="rId54" xr:uid="{BB3AFCB1-AAC5-4152-939C-F33A2B199B49}"/>
-    <hyperlink ref="D27" r:id="rId55" xr:uid="{AA0B8465-1C93-4C93-8FB4-70EECCFD0BD1}"/>
-    <hyperlink ref="D112" r:id="rId56" xr:uid="{5C912F45-1BE8-48D4-B7C7-05279F0DF4F5}"/>
-    <hyperlink ref="D44" r:id="rId57" xr:uid="{26C6A804-2A4E-4798-BA96-FCDE4F2F5EAE}"/>
-    <hyperlink ref="D45" r:id="rId58" xr:uid="{52FE7D45-203F-4523-B991-083D94E9B4B0}"/>
-    <hyperlink ref="D46" r:id="rId59" xr:uid="{6F0F6C37-3DDB-4B66-9CFD-9F34DC4125BD}"/>
-    <hyperlink ref="D77" r:id="rId60" xr:uid="{A9D39B90-574E-482A-9E5C-780A52B1D5B1}"/>
-    <hyperlink ref="D78" r:id="rId61" xr:uid="{320AEF5F-4C69-4DAD-88E3-8AD7C6D026F7}"/>
-    <hyperlink ref="D255" r:id="rId62" xr:uid="{50A68BD6-31CE-476E-AE21-69260726461A}"/>
-    <hyperlink ref="D189" r:id="rId63" xr:uid="{D7107F20-174C-49B9-84C0-94FF1C95E527}"/>
-    <hyperlink ref="D192" r:id="rId64" xr:uid="{9A18C753-3CAE-4890-BC0D-B43603AF3199}"/>
-    <hyperlink ref="D190" r:id="rId65" xr:uid="{890C024D-DD73-49FB-8B68-6D2355454F76}"/>
-    <hyperlink ref="D188" r:id="rId66" xr:uid="{19CBF042-32D2-4063-8114-4537CFC12D84}"/>
-    <hyperlink ref="D191" r:id="rId67" xr:uid="{164FED3A-C109-4F21-8CF9-5C0775FB5C7B}"/>
-    <hyperlink ref="D56" r:id="rId68" xr:uid="{B8722FAF-EA43-4EB0-9CBD-853C398D904E}"/>
-    <hyperlink ref="D141" r:id="rId69" xr:uid="{270ABC6B-F507-4A8A-BB0E-F39E7AFF0A98}"/>
-    <hyperlink ref="D95" r:id="rId70" xr:uid="{4B231FFC-AD66-48BE-8039-CC43E3387CB5}"/>
-    <hyperlink ref="D173" r:id="rId71" xr:uid="{5DB3509F-E703-44C0-8AE3-92833853DD82}"/>
-    <hyperlink ref="D55" r:id="rId72" xr:uid="{1DAB6DD6-748C-4E44-8A81-AEC7D36B5D26}"/>
-    <hyperlink ref="D271" r:id="rId73" xr:uid="{DD2177AC-3B55-46A5-B500-838985FF06ED}"/>
-    <hyperlink ref="D210" r:id="rId74" xr:uid="{5EAAF9C3-95E1-4E34-BF44-EC139FE8D878}"/>
-    <hyperlink ref="D249" r:id="rId75" xr:uid="{CEE4988E-C1CD-49FE-A68A-E1496C687EF2}"/>
-    <hyperlink ref="D160" r:id="rId76" xr:uid="{12608495-DEEF-4A6A-96B0-31F878BD415D}"/>
-    <hyperlink ref="D217" r:id="rId77" xr:uid="{A32EC1D1-3C14-4C6B-918B-D797CED60BA5}"/>
-    <hyperlink ref="D161" r:id="rId78" xr:uid="{8214117D-542A-4D1C-BBC7-28656CEECBA6}"/>
-    <hyperlink ref="D259" r:id="rId79" xr:uid="{666EE373-1D5C-4EC9-B54A-FF80577D4E09}"/>
-    <hyperlink ref="D119" r:id="rId80" xr:uid="{04EE22D5-B998-4D91-AD75-8C6E584A67AB}"/>
-    <hyperlink ref="D142" r:id="rId81" xr:uid="{9DC0E031-E27B-429C-9299-9C64BA1BB582}"/>
-    <hyperlink ref="D262" r:id="rId82" xr:uid="{8625883B-648D-4746-B5A0-1E581546F350}"/>
-    <hyperlink ref="D223" r:id="rId83" xr:uid="{085D45BF-A947-4AD3-8559-BF2BE01F5076}"/>
-    <hyperlink ref="D232" r:id="rId84" xr:uid="{4A6F8314-6120-4471-99E7-59ADD1C3543C}"/>
-    <hyperlink ref="D179" r:id="rId85" xr:uid="{3B8665EB-2CA0-4014-830E-B7EA844198E7}"/>
-    <hyperlink ref="D253" r:id="rId86" xr:uid="{D57585BB-4A81-4E9F-8785-17722B560BBD}"/>
-    <hyperlink ref="D116" r:id="rId87" xr:uid="{CA38894F-DEBE-44BF-8E42-98698D4A217B}"/>
-    <hyperlink ref="D57" r:id="rId88" xr:uid="{AA795225-7002-419F-B1C7-7962BA75DE0B}"/>
-    <hyperlink ref="D219" r:id="rId89" xr:uid="{B7C79578-7A07-483C-B69B-9E3BB7EB0E62}"/>
-    <hyperlink ref="D171" r:id="rId90" xr:uid="{B5159E8E-027D-4111-9FF4-2739042272D7}"/>
-    <hyperlink ref="D168" r:id="rId91" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F19539" xr:uid="{B144E9F9-177A-49B9-ADB2-1E6E9F3DBEEC}"/>
-    <hyperlink ref="D248" r:id="rId92" location="open" xr:uid="{9FCB12F2-A2DA-43A6-89C2-0992787526A9}"/>
-    <hyperlink ref="D170" r:id="rId93" location="open" xr:uid="{A6458447-13AF-48AC-AE5C-F1C2F7B8F4C8}"/>
-    <hyperlink ref="D169" r:id="rId94" location="open" xr:uid="{EFA06985-E957-4DD4-ACAF-1388B93E195B}"/>
-    <hyperlink ref="D225" r:id="rId95" xr:uid="{A952D8DC-782B-4F9C-AF45-69A9815771AE}"/>
-    <hyperlink ref="D144" r:id="rId96" xr:uid="{23E35058-445B-4191-B929-3B56F726141E}"/>
-    <hyperlink ref="D5" r:id="rId97" xr:uid="{AD8758F9-04D3-4883-9E4A-D1C8CC7C23B5}"/>
-    <hyperlink ref="D137" r:id="rId98" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F108" xr:uid="{780393A6-872D-4C9A-B457-F3A2CE0DDADC}"/>
-    <hyperlink ref="D276" r:id="rId99" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F60749" xr:uid="{95D09B43-CAE9-4F7B-BCCB-84D17CA2A024}"/>
-    <hyperlink ref="D35" r:id="rId100" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13421" xr:uid="{AB9E6CAA-D878-4473-A4F0-9680647CB923}"/>
-    <hyperlink ref="D145" r:id="rId101" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18841" xr:uid="{CCFD9383-8319-4E05-B23B-A865B1964E24}"/>
-    <hyperlink ref="D66" r:id="rId102" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12632" xr:uid="{C0AD5A66-AB0C-4F12-9460-0B5623965176}"/>
-    <hyperlink ref="D175" r:id="rId103" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F51100" xr:uid="{5D39B548-AE3D-405B-BF4A-631C9B976814}"/>
-    <hyperlink ref="D176" r:id="rId104" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58047" xr:uid="{93DCEAB0-852A-4222-871A-C3C7B463DF7F}"/>
-    <hyperlink ref="D177" r:id="rId105" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58046" xr:uid="{4C9315D0-123B-43D7-A785-514B294E4D38}"/>
-    <hyperlink ref="D178" r:id="rId106" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58045" xr:uid="{B77DAE19-4F0B-4081-83C2-4DE762FC89CC}"/>
-    <hyperlink ref="D132" r:id="rId107" xr:uid="{9AE771CB-CBE7-4359-8EFD-A66507E66134}"/>
-    <hyperlink ref="D150" r:id="rId108" xr:uid="{D62DA67A-A455-46B4-9B0D-6CFC8E90F7A4}"/>
-    <hyperlink ref="D159" r:id="rId109" xr:uid="{DA7BB2C4-C4B8-4EE0-B4BD-F52AEFEEEFB2}"/>
-    <hyperlink ref="D92" r:id="rId110" xr:uid="{1198F39F-DA97-4C44-A6CD-97B15CE506D4}"/>
-    <hyperlink ref="D265" r:id="rId111" xr:uid="{06363EF9-0975-4ED2-83C2-6FE7615672CF}"/>
-    <hyperlink ref="D8" r:id="rId112" xr:uid="{C98071AD-A5F6-4016-9BB3-E7A1AC6AA344}"/>
-    <hyperlink ref="D126" r:id="rId113" xr:uid="{C93A4DDC-45E0-4E26-A376-1D3331725FA3}"/>
-    <hyperlink ref="D21" r:id="rId114" xr:uid="{30791FDC-E0CC-48A6-BAD5-9F2A8BEA028B}"/>
-    <hyperlink ref="D111" r:id="rId115" xr:uid="{EDDF6B3B-A579-4882-9BBA-939A510DF1FD}"/>
-    <hyperlink ref="D118" r:id="rId116" xr:uid="{30B023E8-7CF3-440D-935D-706C2C9A6499}"/>
-    <hyperlink ref="D89" r:id="rId117" xr:uid="{A206150F-03AD-4D7C-B827-D7E4237460AD}"/>
-    <hyperlink ref="D257" r:id="rId118" xr:uid="{2B20E806-5D8A-45A1-900C-9B9289AB5735}"/>
-    <hyperlink ref="D281" r:id="rId119" xr:uid="{A70000A4-93C9-46C1-A681-55B6423CB308}"/>
-    <hyperlink ref="D19" r:id="rId120" xr:uid="{14E783E9-86EF-4181-9604-559D6EC16830}"/>
-    <hyperlink ref="D7" r:id="rId121" xr:uid="{FB85E98D-25DF-4217-8470-AACCAB67F0A3}"/>
-    <hyperlink ref="D42" r:id="rId122" xr:uid="{7376E014-33A7-4006-983B-A6E1AB8C68FC}"/>
-    <hyperlink ref="D138" r:id="rId123" xr:uid="{39647191-A216-4B19-B7C7-709C32E30C49}"/>
-    <hyperlink ref="D270" r:id="rId124" xr:uid="{442155D0-96CB-4531-9563-F37EE2CBD674}"/>
-    <hyperlink ref="D127" r:id="rId125" xr:uid="{5060F019-B9BA-453A-89F2-143F0FE36061}"/>
-    <hyperlink ref="D79" r:id="rId126" xr:uid="{0B6B7DAD-0927-476C-BAD8-FA90CB541251}"/>
-    <hyperlink ref="D131" r:id="rId127" xr:uid="{B6015264-BE48-4696-B76A-EDC6C92A6E27}"/>
-    <hyperlink ref="D197" r:id="rId128" xr:uid="{D79F4332-BB27-49C6-BDD2-7CEEB88B1524}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{C89FB0F5-1105-4A68-8645-39A7A7D3850A}"/>
-    <hyperlink ref="D133" r:id="rId130" xr:uid="{0933C3A2-1163-4160-9778-94B9815CDE06}"/>
-    <hyperlink ref="D280" r:id="rId131" xr:uid="{859F256D-CDB1-473F-9B2C-26838E594BFC}"/>
-    <hyperlink ref="D72" r:id="rId132" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F53028" xr:uid="{36CAD3B0-9F20-49A0-9AC9-595944A3E531}"/>
-    <hyperlink ref="D99" r:id="rId133" xr:uid="{C9796E48-7688-48E5-8923-6F5F2E6CDAB9}"/>
-    <hyperlink ref="D156" r:id="rId134" xr:uid="{D0473DA8-57B9-4F57-9B22-D9BB4069A2F6}"/>
-    <hyperlink ref="D172" r:id="rId135" xr:uid="{96FF0798-24A8-4C3E-B6FF-809DB78849D6}"/>
-    <hyperlink ref="D279" r:id="rId136" xr:uid="{9516385C-67BF-4A7D-A266-87901F00FE1F}"/>
-    <hyperlink ref="D152" r:id="rId137" xr:uid="{361FA984-4C2C-4B37-BB78-B421632298C2}"/>
-    <hyperlink ref="D154" r:id="rId138" xr:uid="{45E3488A-B345-41EF-AB2D-B431881960FE}"/>
-    <hyperlink ref="D288" r:id="rId139" location="!/provider/tv.plex.provider.vod/details?key=%2Flibrary%2Fmetadata%2F5d77683454f42c001f8c438e" xr:uid="{C192617D-9F74-E44D-B2DE-AAECEACA5747}"/>
-    <hyperlink ref="D289" r:id="rId140" xr:uid="{274CE3E8-1685-5A4A-B0BE-665963F0A1D0}"/>
-    <hyperlink ref="D290" r:id="rId141" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67260" xr:uid="{E8566B3E-AC5F-4BC1-8195-98D12CCDFF55}"/>
-    <hyperlink ref="D291" r:id="rId142" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67259" xr:uid="{C975D3D6-54D3-4F0F-A67E-689CE5E5D3A9}"/>
-    <hyperlink ref="D292" r:id="rId143" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67261" xr:uid="{40FEE5FA-FFC0-4320-990C-204E072FDD2F}"/>
-    <hyperlink ref="D293" r:id="rId144" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67258" xr:uid="{C1BB3517-67F6-4080-98A4-F94620F07DEB}"/>
-    <hyperlink ref="D294" r:id="rId145" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67270" xr:uid="{6129BAF7-D172-4360-B805-3E2A3BBF7860}"/>
-    <hyperlink ref="D295" r:id="rId146" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28039" xr:uid="{00A304FF-8FF6-4EDE-A28B-3C0C5BB0CFBB}"/>
-    <hyperlink ref="D296" r:id="rId147" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28037" xr:uid="{508E46E6-5B2A-43E6-B246-35A4A578A44D}"/>
-    <hyperlink ref="D298" r:id="rId148" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28036" xr:uid="{559950C4-F0D3-4B59-8D4B-3EE2AC19FD54}"/>
-    <hyperlink ref="D299" r:id="rId149" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58378" xr:uid="{6FF1D721-A309-4856-B971-B110BDEC8776}"/>
-    <hyperlink ref="D254" r:id="rId150" display="https://www.disneyplus.com/play/ffb14e5a-38db-4522-a559-3cfa52bcf4df" xr:uid="{A251483C-9557-43AB-AB67-5CA31C67805F}"/>
-    <hyperlink ref="D182" r:id="rId151" xr:uid="{E511BA8F-67C0-4ECA-BED0-7653C3679912}"/>
+    <hyperlink ref="D217" r:id="rId1" xr:uid="{E511BA8F-67C0-4ECA-BED0-7653C3679912}"/>
+    <hyperlink ref="D74" r:id="rId2" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58378" xr:uid="{6FF1D721-A309-4856-B971-B110BDEC8776}"/>
+    <hyperlink ref="D46" r:id="rId3" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28036" xr:uid="{559950C4-F0D3-4B59-8D4B-3EE2AC19FD54}"/>
+    <hyperlink ref="D47" r:id="rId4" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28037" xr:uid="{508E46E6-5B2A-43E6-B246-35A4A578A44D}"/>
+    <hyperlink ref="D49" r:id="rId5" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28039" xr:uid="{00A304FF-8FF6-4EDE-A28B-3C0C5BB0CFBB}"/>
+    <hyperlink ref="D90" r:id="rId6" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67270" xr:uid="{6129BAF7-D172-4360-B805-3E2A3BBF7860}"/>
+    <hyperlink ref="D86" r:id="rId7" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67258" xr:uid="{C1BB3517-67F6-4080-98A4-F94620F07DEB}"/>
+    <hyperlink ref="D89" r:id="rId8" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67261" xr:uid="{40FEE5FA-FFC0-4320-990C-204E072FDD2F}"/>
+    <hyperlink ref="D87" r:id="rId9" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67259" xr:uid="{C975D3D6-54D3-4F0F-A67E-689CE5E5D3A9}"/>
+    <hyperlink ref="D88" r:id="rId10" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F67260" xr:uid="{E8566B3E-AC5F-4BC1-8195-98D12CCDFF55}"/>
+    <hyperlink ref="D129" r:id="rId11" xr:uid="{274CE3E8-1685-5A4A-B0BE-665963F0A1D0}"/>
+    <hyperlink ref="D6" r:id="rId12" location="!/provider/tv.plex.provider.vod/details?key=%2Flibrary%2Fmetadata%2F5d77683454f42c001f8c438e" xr:uid="{C192617D-9F74-E44D-B2DE-AAECEACA5747}"/>
+    <hyperlink ref="D185" r:id="rId13" xr:uid="{45E3488A-B345-41EF-AB2D-B431881960FE}"/>
+    <hyperlink ref="D207" r:id="rId14" xr:uid="{361FA984-4C2C-4B37-BB78-B421632298C2}"/>
+    <hyperlink ref="D188" r:id="rId15" xr:uid="{9516385C-67BF-4A7D-A266-87901F00FE1F}"/>
+    <hyperlink ref="D189" r:id="rId16" xr:uid="{96FF0798-24A8-4C3E-B6FF-809DB78849D6}"/>
+    <hyperlink ref="D125" r:id="rId17" xr:uid="{D0473DA8-57B9-4F57-9B22-D9BB4069A2F6}"/>
+    <hyperlink ref="D215" r:id="rId18" xr:uid="{C9796E48-7688-48E5-8923-6F5F2E6CDAB9}"/>
+    <hyperlink ref="D65" r:id="rId19" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F53028" xr:uid="{36CAD3B0-9F20-49A0-9AC9-595944A3E531}"/>
+    <hyperlink ref="D234" r:id="rId20" xr:uid="{859F256D-CDB1-473F-9B2C-26838E594BFC}"/>
+    <hyperlink ref="D236" r:id="rId21" xr:uid="{0933C3A2-1163-4160-9778-94B9815CDE06}"/>
+    <hyperlink ref="D233" r:id="rId22" xr:uid="{C89FB0F5-1105-4A68-8645-39A7A7D3850A}"/>
+    <hyperlink ref="D235" r:id="rId23" xr:uid="{D79F4332-BB27-49C6-BDD2-7CEEB88B1524}"/>
+    <hyperlink ref="D231" r:id="rId24" xr:uid="{B6015264-BE48-4696-B76A-EDC6C92A6E27}"/>
+    <hyperlink ref="D229" r:id="rId25" xr:uid="{0B6B7DAD-0927-476C-BAD8-FA90CB541251}"/>
+    <hyperlink ref="D205" r:id="rId26" xr:uid="{5060F019-B9BA-453A-89F2-143F0FE36061}"/>
+    <hyperlink ref="D196" r:id="rId27" xr:uid="{442155D0-96CB-4531-9563-F37EE2CBD674}"/>
+    <hyperlink ref="D102" r:id="rId28" xr:uid="{39647191-A216-4B19-B7C7-709C32E30C49}"/>
+    <hyperlink ref="D174" r:id="rId29" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F56982" xr:uid="{7376E014-33A7-4006-983B-A6E1AB8C68FC}"/>
+    <hyperlink ref="D71" r:id="rId30" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58045" xr:uid="{B77DAE19-4F0B-4081-83C2-4DE762FC89CC}"/>
+    <hyperlink ref="D72" r:id="rId31" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58046" xr:uid="{4C9315D0-123B-43D7-A785-514B294E4D38}"/>
+    <hyperlink ref="D73" r:id="rId32" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F58047" xr:uid="{93DCEAB0-852A-4222-871A-C3C7B463DF7F}"/>
+    <hyperlink ref="D63" r:id="rId33" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F51100" xr:uid="{5D39B548-AE3D-405B-BF4A-631C9B976814}"/>
+    <hyperlink ref="D24" r:id="rId34" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12632" xr:uid="{C0AD5A66-AB0C-4F12-9460-0B5623965176}"/>
+    <hyperlink ref="D34" r:id="rId35" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18841" xr:uid="{CCFD9383-8319-4E05-B23B-A865B1964E24}"/>
+    <hyperlink ref="D25" r:id="rId36" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13421" xr:uid="{AB9E6CAA-D878-4473-A4F0-9680647CB923}"/>
+    <hyperlink ref="D78" r:id="rId37" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F60749" xr:uid="{95D09B43-CAE9-4F7B-BCCB-84D17CA2A024}"/>
+    <hyperlink ref="D7" r:id="rId38" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F108" xr:uid="{780393A6-872D-4C9A-B457-F3A2CE0DDADC}"/>
+    <hyperlink ref="D118" r:id="rId39" xr:uid="{AD8758F9-04D3-4883-9E4A-D1C8CC7C23B5}"/>
+    <hyperlink ref="D116" r:id="rId40" xr:uid="{23E35058-445B-4191-B929-3B56F726141E}"/>
+    <hyperlink ref="D120" r:id="rId41" xr:uid="{A952D8DC-782B-4F9C-AF45-69A9815771AE}"/>
+    <hyperlink ref="D212" r:id="rId42" location="open" xr:uid="{EFA06985-E957-4DD4-ACAF-1388B93E195B}"/>
+    <hyperlink ref="D213" r:id="rId43" location="open" xr:uid="{A6458447-13AF-48AC-AE5C-F1C2F7B8F4C8}"/>
+    <hyperlink ref="D211" r:id="rId44" location="open" xr:uid="{9FCB12F2-A2DA-43A6-89C2-0992787526A9}"/>
+    <hyperlink ref="D35" r:id="rId45" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F17604" xr:uid="{B144E9F9-177A-49B9-ADB2-1E6E9F3DBEEC}"/>
+    <hyperlink ref="D224" r:id="rId46" xr:uid="{B5159E8E-027D-4111-9FF4-2739042272D7}"/>
+    <hyperlink ref="D218" r:id="rId47" xr:uid="{B7C79578-7A07-483C-B69B-9E3BB7EB0E62}"/>
+    <hyperlink ref="D226" r:id="rId48" xr:uid="{AA795225-7002-419F-B1C7-7962BA75DE0B}"/>
+    <hyperlink ref="D222" r:id="rId49" xr:uid="{CA38894F-DEBE-44BF-8E42-98698D4A217B}"/>
+    <hyperlink ref="D111" r:id="rId50" xr:uid="{D57585BB-4A81-4E9F-8785-17722B560BBD}"/>
+    <hyperlink ref="D114" r:id="rId51" xr:uid="{3B8665EB-2CA0-4014-830E-B7EA844198E7}"/>
+    <hyperlink ref="D115" r:id="rId52" xr:uid="{4A6F8314-6120-4471-99E7-59ADD1C3543C}"/>
+    <hyperlink ref="D104" r:id="rId53" xr:uid="{085D45BF-A947-4AD3-8559-BF2BE01F5076}"/>
+    <hyperlink ref="D124" r:id="rId54" xr:uid="{8625883B-648D-4746-B5A0-1E581546F350}"/>
+    <hyperlink ref="D112" r:id="rId55" xr:uid="{9DC0E031-E27B-429C-9299-9C64BA1BB582}"/>
+    <hyperlink ref="D108" r:id="rId56" xr:uid="{04EE22D5-B998-4D91-AD75-8C6E584A67AB}"/>
+    <hyperlink ref="D122" r:id="rId57" xr:uid="{666EE373-1D5C-4EC9-B54A-FF80577D4E09}"/>
+    <hyperlink ref="D113" r:id="rId58" xr:uid="{8214117D-542A-4D1C-BBC7-28656CEECBA6}"/>
+    <hyperlink ref="D105" r:id="rId59" xr:uid="{A32EC1D1-3C14-4C6B-918B-D797CED60BA5}"/>
+    <hyperlink ref="D123" r:id="rId60" xr:uid="{12608495-DEEF-4A6A-96B0-31F878BD415D}"/>
+    <hyperlink ref="D184" r:id="rId61" xr:uid="{DD2177AC-3B55-46A5-B500-838985FF06ED}"/>
+    <hyperlink ref="D110" r:id="rId62" xr:uid="{1DAB6DD6-748C-4E44-8A81-AEC7D36B5D26}"/>
+    <hyperlink ref="D100" r:id="rId63" xr:uid="{5DB3509F-E703-44C0-8AE3-92833853DD82}"/>
+    <hyperlink ref="D162" r:id="rId64" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20983" xr:uid="{4B231FFC-AD66-48BE-8039-CC43E3387CB5}"/>
+    <hyperlink ref="D221" r:id="rId65" xr:uid="{270ABC6B-F507-4A8A-BB0E-F39E7AFF0A98}"/>
+    <hyperlink ref="D135" r:id="rId66" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F892" xr:uid="{50A68BD6-31CE-476E-AE21-69260726461A}"/>
+    <hyperlink ref="D175" r:id="rId67" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F334" xr:uid="{52FE7D45-203F-4523-B991-083D94E9B4B0}"/>
+    <hyperlink ref="D154" r:id="rId68" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F333" xr:uid="{26C6A804-2A4E-4798-BA96-FCDE4F2F5EAE}"/>
+    <hyperlink ref="D178" r:id="rId69" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14741" xr:uid="{4FE494D9-8FB6-4C51-9A77-3E75550A031E}"/>
+    <hyperlink ref="D161" r:id="rId70" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14742" xr:uid="{B0D73AB9-B7D5-4D06-BEF2-7B466DFC0E5B}"/>
+    <hyperlink ref="D171" r:id="rId71" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55611" xr:uid="{F10693C7-5C36-4C19-8DF2-8095791A3AFB}"/>
+    <hyperlink ref="D157" r:id="rId72" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52254" xr:uid="{A649D737-648F-4141-BD16-9600BFA7851D}"/>
+    <hyperlink ref="D155" r:id="rId73" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55258" xr:uid="{14450188-A9BC-4511-9958-CED81B39DE4A}"/>
+    <hyperlink ref="D148" r:id="rId74" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1296" xr:uid="{F64253FC-F54E-46EA-A000-74C90183A92E}"/>
+    <hyperlink ref="D176" r:id="rId75" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55260" xr:uid="{BFD6AFF8-7831-48A9-BA42-2E149BFF6522}"/>
+    <hyperlink ref="D165" r:id="rId76" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55216" xr:uid="{B286541F-B6B1-4882-A28A-112BA6548128}"/>
+    <hyperlink ref="D177" r:id="rId77" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55406" xr:uid="{52E7527F-DFDA-451F-993B-1653832C5117}"/>
+    <hyperlink ref="D166" r:id="rId78" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F127" xr:uid="{4B6C0F07-26B8-4B44-BC67-F7231E6A4665}"/>
+    <hyperlink ref="D153" r:id="rId79" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F199" xr:uid="{25F815D5-CA2A-4ABD-A85E-48E8CCD03043}"/>
+    <hyperlink ref="D145" r:id="rId80" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F198" xr:uid="{F36074D8-92B4-41AE-87CF-844C3D876D9B}"/>
+    <hyperlink ref="D152" r:id="rId81" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55306" xr:uid="{6F963AB9-9CAC-4917-AA06-67E33BF30BD7}"/>
+    <hyperlink ref="D160" r:id="rId82" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F684" xr:uid="{8CBFA309-3772-4DE8-8B8E-E35BB4368C1D}"/>
+    <hyperlink ref="D168" r:id="rId83" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20985" xr:uid="{07DFD93B-BA75-4C4E-8750-7B48B409F5D1}"/>
+    <hyperlink ref="D219" r:id="rId84" xr:uid="{DE156B9A-7FF4-4935-9F77-45B0C8AD2EEA}"/>
+    <hyperlink ref="D223" r:id="rId85" xr:uid="{2324F427-9CEA-4703-974E-73743528F7F2}"/>
+    <hyperlink ref="D214" r:id="rId86" location="open" xr:uid="{D1B342EC-F093-45FF-9730-33AED68B5926}"/>
+    <hyperlink ref="D220" r:id="rId87" xr:uid="{6EA09EB9-8513-4BD6-B897-3332399FF770}"/>
+    <hyperlink ref="D143" r:id="rId88" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F55024" xr:uid="{E5F96217-D4A5-4424-A60C-BC169E58130E}"/>
+    <hyperlink ref="D61" r:id="rId89" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50053" xr:uid="{DE99DB3F-8EC7-4118-AE27-92DB5B300712}"/>
+    <hyperlink ref="D29" r:id="rId90" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18445" xr:uid="{CD618DF5-385D-4421-9FBB-607E31CD83B0}"/>
+    <hyperlink ref="D23" r:id="rId91" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12631" xr:uid="{71B9C30E-B188-470B-9E3A-ACC2ABCA4AA7}"/>
+    <hyperlink ref="D30" r:id="rId92" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18449" xr:uid="{CACC0E19-8034-4A0C-BDAB-7E08462E836F}"/>
+    <hyperlink ref="D40" r:id="rId93" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F20982" xr:uid="{15BD7191-5989-4112-8F21-33EB16E7159C}"/>
+    <hyperlink ref="D26" r:id="rId94" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F13424" xr:uid="{7B636DA2-BAEB-4D25-9C75-4643A4943C7A}"/>
+    <hyperlink ref="D81" r:id="rId95" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F62060" xr:uid="{F4527EAA-B8DB-4E4F-A33B-44ADE449C9CF}"/>
+    <hyperlink ref="D62" r:id="rId96" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F50564" xr:uid="{B0473A44-24FB-416D-9CEA-B10C05B7C585}"/>
+    <hyperlink ref="D79" r:id="rId97" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61373" xr:uid="{7DCA17E7-4DB0-4973-B3CB-2E7BF907F055}"/>
+    <hyperlink ref="D33" r:id="rId98" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F18457" xr:uid="{B222B584-5A02-443B-8FEF-66301958BAFF}"/>
+    <hyperlink ref="D167" r:id="rId99" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F53264" xr:uid="{9AE771CB-CBE7-4359-8EFD-A66507E66134}"/>
+    <hyperlink ref="D3" r:id="rId100" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F171664" xr:uid="{40584756-CCD9-4C8D-93CB-58D8445CA8EC}"/>
+    <hyperlink ref="D5" r:id="rId101" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F57935" display="https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F57935" xr:uid="{C872F541-A2CD-4E71-9653-CDA18530BAE8}"/>
+    <hyperlink ref="D4" r:id="rId102" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F56413" display="https://app.plex.tv/desktop/#!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F56413" xr:uid="{FAEA0E9A-DC30-492E-A1E9-71B7334D90FA}"/>
+    <hyperlink ref="D156" r:id="rId103" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1121" xr:uid="{69577CB3-6E1D-4150-9E01-179FFA290F0D}"/>
+    <hyperlink ref="D130" r:id="rId104" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F98838" xr:uid="{78846573-9EA9-41EC-976A-858AC18DF36D}"/>
+    <hyperlink ref="D131" r:id="rId105" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1122" xr:uid="{AAB7E923-EC8C-4106-B3AC-2862CBDDD7AC}"/>
+    <hyperlink ref="D159" r:id="rId106" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F306" xr:uid="{67B721C2-8960-42CF-9CDB-723D1AE78232}"/>
+    <hyperlink ref="D169" r:id="rId107" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F303" xr:uid="{92FB3C9E-1922-4417-BF15-0D959C9A0D9E}"/>
+    <hyperlink ref="D132" r:id="rId108" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F307" xr:uid="{7BB715CD-645F-4540-BE42-B891B9454D34}"/>
+    <hyperlink ref="D133" r:id="rId109" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F61940" xr:uid="{2A16D114-DFF6-4363-A5C6-C35C1D97F0E0}"/>
+    <hyperlink ref="D134" r:id="rId110" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F171" xr:uid="{40DCAE01-7C86-41D3-8A81-30C3F4E44C20}"/>
+    <hyperlink ref="D136" r:id="rId111" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F28352" xr:uid="{B0D1B274-F879-4258-A166-483698523999}"/>
+    <hyperlink ref="D137" r:id="rId112" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F157" xr:uid="{D23A5AE4-B46C-41FA-83B3-B845B76B01EB}"/>
+    <hyperlink ref="D138" r:id="rId113" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F139" xr:uid="{99E83F83-A9B6-4A9B-AB89-440D2252F253}"/>
+    <hyperlink ref="D139" r:id="rId114" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F332" xr:uid="{0C1BC006-8046-4655-9B53-12BF89040D26}"/>
+    <hyperlink ref="D140" r:id="rId115" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F304" xr:uid="{7159D688-AE11-45EA-82CF-B649D1F50FE8}"/>
+    <hyperlink ref="D141" r:id="rId116" location="!/server/58b7f209846e6c32615596d83a49941388e69a21/details?key=%2Flibrary%2Fmetadata%2F165" xr:uid="{6C541511-2610-426D-A014-E060F9E70E8E}"/>
+    <hyperlink ref="D142" r:id="rId117" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F40491" xr:uid="{F85B0B08-15BF-49DB-A32C-99313B88439A}"/>
+    <hyperlink ref="D144" r:id="rId118" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F14680" xr:uid="{5C88A8C8-22A6-46CB-B815-32549D5E2F17}"/>
+    <hyperlink ref="D146" r:id="rId119" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F308" xr:uid="{2D797E1C-327A-4F38-9345-3D439463BFD0}"/>
+    <hyperlink ref="D147" r:id="rId120" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F56" xr:uid="{99DE26B7-24CA-4CCE-8D36-DB52403EE292}"/>
+    <hyperlink ref="D149" r:id="rId121" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52272" xr:uid="{E575BBD1-E59B-41D8-9E1F-01E8BB3C3A42}"/>
+    <hyperlink ref="D150" r:id="rId122" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F27423" xr:uid="{E0FCA547-3E4D-4CF3-8C66-F46338A4DC1A}"/>
+    <hyperlink ref="D151" r:id="rId123" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F337" xr:uid="{66D2D73C-12DC-4F5E-B2F8-9CFC14C34F75}"/>
+    <hyperlink ref="D158" r:id="rId124" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F12636" xr:uid="{C13A68A6-6D00-4738-8446-511F0E47944B}"/>
+    <hyperlink ref="D163" r:id="rId125" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F52281" xr:uid="{93449D60-14B6-463C-B4BD-B16933DB06A4}"/>
+    <hyperlink ref="D164" r:id="rId126" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F15156" xr:uid="{6ACD9668-F35D-4BB8-BA56-88EB24493967}"/>
+    <hyperlink ref="D170" r:id="rId127" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F1123" xr:uid="{91DBB100-65B9-4161-B8CE-6E9F2F8B9E99}"/>
+    <hyperlink ref="D172" r:id="rId128" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F336" xr:uid="{E88FCE85-2A48-452E-963D-26362496E3DB}"/>
+    <hyperlink ref="D173" r:id="rId129" location="!/server/df127e3414a9a9cd66b38f4364f62b6a5172af7f/details?key=%2Flibrary%2Fmetadata%2F305" xr:uid="{67B335B1-D55E-4AE3-BD3D-A208D5159D9C}"/>
+    <hyperlink ref="D179" r:id="rId130" location="!/provider/tv.plex.provider.discover/details?key=%2Flibrary%2Fmetadata%2F5d9c081dba6eb9001fb9c35c" xr:uid="{8C991D89-9B1A-4D8A-90CF-C6CCEB819382}"/>
+    <hyperlink ref="D180" r:id="rId131" location="!/server/74aad91cfa09d8ebfa9a9f5a4609a7ba5657d51c/details?key=%2Flibrary%2Fmetadata%2F7615" xr:uid="{79704F6A-9BA9-4370-BE81-A3526BC88F1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId152"/>
+    <tablePart r:id="rId132"/>
   </tableParts>
 </worksheet>
 </file>